--- a/household-size/data/household-size-by-re-multiperson.xlsx
+++ b/household-size/data/household-size-by-re-multiperson.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve">DATA_YEAR</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t xml:space="preserve">White alone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
   </si>
   <si>
     <t xml:space="preserve">Total Multirace</t>
@@ -547,13 +544,13 @@
         <v>2224</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00208108480726512</v>
+        <v>0.535025167785235</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00493421320956335</v>
+        <v>0.731792886523107</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00181413294396907</v>
+        <v>0.500788110785859</v>
       </c>
       <c r="K2" t="s">
         <v>16</v>
@@ -588,13 +585,13 @@
         <v>145275</v>
       </c>
       <c r="H3" t="n">
-        <v>0.120704550404918</v>
+        <v>0.720045550326785</v>
       </c>
       <c r="I3" t="n">
-        <v>0.144242330312497</v>
+        <v>0.754375935872222</v>
       </c>
       <c r="J3" t="n">
-        <v>0.118501872048159</v>
+        <v>0.716166052915687</v>
       </c>
       <c r="K3" t="s">
         <v>16</v>
@@ -629,13 +626,13 @@
         <v>43205</v>
       </c>
       <c r="H4" t="n">
-        <v>0.036688603307383</v>
+        <v>0.590499074329381</v>
       </c>
       <c r="I4" t="n">
-        <v>0.047738451624481</v>
+        <v>0.651656867985035</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0352426321241833</v>
+        <v>0.580018526225349</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
@@ -670,13 +667,13 @@
         <v>68641</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0572449243475501</v>
+        <v>0.715082034036482</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0895597627923291</v>
+        <v>0.796676704277473</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0559909619635705</v>
+        <v>0.710113591690633</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
@@ -709,11 +706,11 @@
         <v>25602</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0188602899487112</v>
+        <v>1</v>
       </c>
       <c r="I6"/>
       <c r="J6" t="n">
-        <v>0.0208837372443777</v>
+        <v>1</v>
       </c>
       <c r="K6" t="s">
         <v>16</v>
@@ -744,11 +741,11 @@
         <v>63533</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0501638517771616</v>
+        <v>1</v>
       </c>
       <c r="I7"/>
       <c r="J7" t="n">
-        <v>0.0518243292847063</v>
+        <v>1</v>
       </c>
       <c r="K7" t="s">
         <v>16</v>
@@ -779,11 +776,11 @@
         <v>183109</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1332750858009</v>
+        <v>1</v>
       </c>
       <c r="I8"/>
       <c r="J8" t="n">
-        <v>0.149363340484367</v>
+        <v>1</v>
       </c>
       <c r="K8" t="s">
         <v>16</v>
@@ -814,11 +811,11 @@
         <v>27790</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0191352117754647</v>
+        <v>1</v>
       </c>
       <c r="I9"/>
       <c r="J9" t="n">
-        <v>0.0226685047270236</v>
+        <v>1</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -851,13 +848,13 @@
         <v>5787</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00503261943395472</v>
+        <v>0.824181696726787</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0074025433752335</v>
+        <v>0.873351939178135</v>
       </c>
       <c r="J10" t="n">
-        <v>0.00472049790771088</v>
+        <v>0.814726172039983</v>
       </c>
       <c r="K10" t="s">
         <v>16</v>
@@ -892,13 +889,13 @@
         <v>4231</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00357479953956712</v>
+        <v>0.621736662883087</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00492768755149152</v>
+        <v>0.693809578500057</v>
       </c>
       <c r="J11" t="n">
-        <v>0.00345125741273972</v>
+        <v>0.613455125416848</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
@@ -933,13 +930,13 @@
         <v>20365</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0184589203974864</v>
+        <v>0.449251479172458</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0536205166689778</v>
+        <v>0.703243682735306</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0166118783291053</v>
+        <v>0.423353567270913</v>
       </c>
       <c r="K12" t="s">
         <v>16</v>
@@ -974,13 +971,13 @@
         <v>636168</v>
       </c>
       <c r="H13" t="n">
-        <v>0.534780058459638</v>
+        <v>0.67437570854534</v>
       </c>
       <c r="I13" t="n">
-        <v>0.647574494465426</v>
+        <v>0.714725829147719</v>
       </c>
       <c r="J13" t="n">
-        <v>0.518926855530087</v>
+        <v>0.667517281613706</v>
       </c>
       <c r="K13" t="s">
         <v>16</v>
@@ -1006,29 +1003,23 @@
         <v>15</v>
       </c>
       <c r="E14" t="n">
-        <v>1225803</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1225930</v>
-      </c>
+        <v>271435</v>
+      </c>
+      <c r="F14"/>
       <c r="G14" t="n">
-        <v>1225930</v>
+        <v>300034</v>
       </c>
       <c r="H14" t="n">
-        <v>0.724066742983516</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.72385314979715</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14"/>
       <c r="J14" t="n">
-        <v>0.72385314979715</v>
+        <v>1</v>
       </c>
       <c r="K14" t="s">
         <v>16</v>
       </c>
-      <c r="L14" t="s">
-        <v>16</v>
-      </c>
+      <c r="L14"/>
       <c r="M14" t="s">
         <v>16</v>
       </c>
@@ -1047,23 +1038,29 @@
         <v>15</v>
       </c>
       <c r="E15" t="n">
-        <v>271435</v>
-      </c>
-      <c r="F15"/>
+        <v>294062</v>
+      </c>
+      <c r="F15" t="n">
+        <v>65735</v>
+      </c>
       <c r="G15" t="n">
-        <v>300034</v>
+        <v>320399</v>
       </c>
       <c r="H15" t="n">
-        <v>0.221434439302237</v>
-      </c>
-      <c r="I15"/>
+        <v>0.913800765069095</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.703243682735306</v>
+      </c>
       <c r="J15" t="n">
-        <v>0.244739911740475</v>
+        <v>0.920321826402174</v>
       </c>
       <c r="K15" t="s">
         <v>16</v>
       </c>
-      <c r="L15"/>
+      <c r="L15" t="s">
+        <v>16</v>
+      </c>
       <c r="M15" t="s">
         <v>16</v>
       </c>
@@ -1082,22 +1079,22 @@
         <v>15</v>
       </c>
       <c r="E16" t="n">
-        <v>294062</v>
+        <v>570268</v>
       </c>
       <c r="F16" t="n">
-        <v>65735</v>
+        <v>432049</v>
       </c>
       <c r="G16" t="n">
-        <v>320399</v>
+        <v>589762</v>
       </c>
       <c r="H16" t="n">
-        <v>0.239893359699723</v>
+        <v>0.791072023082899</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0536205166689778</v>
+        <v>0.741246731678528</v>
       </c>
       <c r="J16" t="n">
-        <v>0.26135179006958</v>
+        <v>0.79635043297087</v>
       </c>
       <c r="K16" t="s">
         <v>16</v>
@@ -1106,47 +1103,6 @@
         <v>16</v>
       </c>
       <c r="M16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" t="n">
-        <v>570268</v>
-      </c>
-      <c r="F17" t="n">
-        <v>432049</v>
-      </c>
-      <c r="G17" t="n">
-        <v>589762</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.465171747163378</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.352425505534574</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.481073144469913</v>
-      </c>
-      <c r="K17" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1210,13 +1166,13 @@
         <v>2023</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" t="n">
         <v>621</v>
@@ -1228,22 +1184,22 @@
         <v>565</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00259133301341568</v>
+        <v>0.703284258210646</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0062592584865113</v>
+        <v>0.851305334846765</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00235765402991926</v>
+        <v>0.683192261185006</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -1251,13 +1207,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" t="n">
         <v>25887</v>
@@ -1269,13 +1225,13 @@
         <v>25612</v>
       </c>
       <c r="H3" t="n">
-        <v>0.108022282960212</v>
+        <v>0.824006875477464</v>
       </c>
       <c r="I3" t="n">
-        <v>0.125694256087129</v>
+        <v>0.844605204127411</v>
       </c>
       <c r="J3" t="n">
-        <v>0.106874752237685</v>
+        <v>0.822109520446813</v>
       </c>
       <c r="K3" t="s">
         <v>16</v>
@@ -1292,13 +1248,13 @@
         <v>2023</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" t="n">
         <v>5604</v>
@@ -1310,13 +1266,13 @@
         <v>5483</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0233845897056062</v>
+        <v>0.710716550412175</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0324563416720566</v>
+        <v>0.765928114229444</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0228796761876943</v>
+        <v>0.697582697201018</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
@@ -1333,13 +1289,13 @@
         <v>2023</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" t="n">
         <v>14550</v>
@@ -1351,13 +1307,13 @@
         <v>14107</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0607148073191596</v>
+        <v>0.794908216783217</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0881178409731061</v>
+        <v>0.849061155562704</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0588662396461433</v>
+        <v>0.789821398577907</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
@@ -1374,13 +1330,13 @@
         <v>2023</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" t="n">
         <v>39624</v>
@@ -1390,11 +1346,11 @@
         <v>44784</v>
       </c>
       <c r="H6" t="n">
-        <v>0.165344572179682</v>
+        <v>1</v>
       </c>
       <c r="I6"/>
       <c r="J6" t="n">
-        <v>0.186876421373281</v>
+        <v>1</v>
       </c>
       <c r="K6" t="s">
         <v>16</v>
@@ -1409,13 +1365,13 @@
         <v>2023</v>
       </c>
       <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
         <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
       </c>
       <c r="E7" t="n">
         <v>6504</v>
@@ -1425,11 +1381,11 @@
         <v>7267</v>
       </c>
       <c r="H7" t="n">
-        <v>0.027140144797513</v>
+        <v>1</v>
       </c>
       <c r="I7"/>
       <c r="J7" t="n">
-        <v>0.0303240209476517</v>
+        <v>1</v>
       </c>
       <c r="K7" t="s">
         <v>16</v>
@@ -1444,13 +1400,13 @@
         <v>2023</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" t="n">
         <v>454</v>
@@ -1462,22 +1418,22 @@
         <v>420</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00189446890191742</v>
+        <v>0.792321116928447</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00318804898912975</v>
+        <v>0.865232163080408</v>
       </c>
       <c r="J8" t="n">
-        <v>0.00175259237622316</v>
+        <v>0.779220779220779</v>
       </c>
       <c r="K8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1485,13 +1441,13 @@
         <v>2023</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" t="n">
         <v>790</v>
@@ -1503,22 +1459,22 @@
         <v>764</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00329654280289595</v>
+        <v>0.5813097866078</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00528281416261554</v>
+        <v>0.68991825613079</v>
       </c>
       <c r="J9" t="n">
-        <v>0.00318804898912975</v>
+        <v>0.573143285821455</v>
       </c>
       <c r="K9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1526,13 +1482,13 @@
         <v>2023</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" t="n">
         <v>3969</v>
@@ -1544,13 +1500,13 @@
         <v>3691</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0165619979553089</v>
+        <v>0.537950664136622</v>
       </c>
       <c r="I10" t="n">
-        <v>0.045442216612072</v>
+        <v>0.761591719700678</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0154019487158088</v>
+        <v>0.519859154929577</v>
       </c>
       <c r="K10" t="s">
         <v>16</v>
@@ -1567,13 +1523,13 @@
         <v>2023</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" t="n">
         <v>141642</v>
@@ -1585,13 +1541,13 @@
         <v>136952</v>
       </c>
       <c r="H11" t="n">
-        <v>0.591049260364289</v>
+        <v>0.716202823510376</v>
       </c>
       <c r="I11" t="n">
-        <v>0.69355922301738</v>
+        <v>0.747479290153716</v>
       </c>
       <c r="J11" t="n">
-        <v>0.571478645496464</v>
+        <v>0.709221033443465</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
@@ -1608,38 +1564,32 @@
         <v>2023</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" t="n">
-        <v>239645</v>
-      </c>
-      <c r="F12" t="n">
-        <v>239645</v>
-      </c>
+        <v>46128</v>
+      </c>
+      <c r="F12"/>
       <c r="G12" t="n">
-        <v>239645</v>
+        <v>52051</v>
       </c>
       <c r="H12" t="n">
-        <v>0.76884701020873</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.768519082696495</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12"/>
       <c r="J12" t="n">
-        <v>0.768519082696495</v>
+        <v>1</v>
       </c>
       <c r="K12" t="s">
         <v>16</v>
       </c>
-      <c r="L12" t="s">
-        <v>16</v>
-      </c>
+      <c r="L12"/>
       <c r="M12" t="s">
         <v>16</v>
       </c>
@@ -1649,32 +1599,38 @@
         <v>2023</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" t="n">
-        <v>46128</v>
-      </c>
-      <c r="F13"/>
+        <v>50097</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10890</v>
+      </c>
       <c r="G13" t="n">
-        <v>52051</v>
+        <v>55742</v>
       </c>
       <c r="H13" t="n">
-        <v>0.192484716977195</v>
-      </c>
-      <c r="I13"/>
+        <v>0.93628751915673</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.761591719700678</v>
+      </c>
       <c r="J13" t="n">
-        <v>0.217200442320933</v>
+        <v>0.942367838244493</v>
       </c>
       <c r="K13" t="s">
         <v>16</v>
       </c>
-      <c r="L13"/>
+      <c r="L13" t="s">
+        <v>16</v>
+      </c>
       <c r="M13" t="s">
         <v>16</v>
       </c>
@@ -1684,31 +1640,31 @@
         <v>2023</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" t="n">
-        <v>50097</v>
+        <v>98003</v>
       </c>
       <c r="F14" t="n">
-        <v>10890</v>
+        <v>73437</v>
       </c>
       <c r="G14" t="n">
-        <v>55742</v>
+        <v>102693</v>
       </c>
       <c r="H14" t="n">
-        <v>0.209046714932504</v>
+        <v>0.860233835998806</v>
       </c>
       <c r="I14" t="n">
-        <v>0.045442216612072</v>
+        <v>0.820809442376689</v>
       </c>
       <c r="J14" t="n">
-        <v>0.232602391036742</v>
+        <v>0.864965255843335</v>
       </c>
       <c r="K14" t="s">
         <v>16</v>
@@ -1717,47 +1673,6 @@
         <v>16</v>
       </c>
       <c r="M14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" t="n">
-        <v>98003</v>
-      </c>
-      <c r="F15" t="n">
-        <v>73437</v>
-      </c>
-      <c r="G15" t="n">
-        <v>102693</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.408950739635711</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.30644077698262</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.428521354503536</v>
-      </c>
-      <c r="K15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1827,7 +1742,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" t="n">
         <v>2551</v>
@@ -1839,13 +1754,13 @@
         <v>2224</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00208108480726512</v>
+        <v>0.535025167785235</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00493421320956335</v>
+        <v>0.731792886523107</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00181413294396907</v>
+        <v>0.500788110785859</v>
       </c>
       <c r="K2" t="s">
         <v>16</v>
@@ -1868,7 +1783,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" t="n">
         <v>147960</v>
@@ -1880,13 +1795,13 @@
         <v>145275</v>
       </c>
       <c r="H3" t="n">
-        <v>0.120704550404918</v>
+        <v>0.720045550326785</v>
       </c>
       <c r="I3" t="n">
-        <v>0.144242330312497</v>
+        <v>0.754375935872222</v>
       </c>
       <c r="J3" t="n">
-        <v>0.118501872048159</v>
+        <v>0.716166052915687</v>
       </c>
       <c r="K3" t="s">
         <v>16</v>
@@ -1909,7 +1824,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" t="n">
         <v>44973</v>
@@ -1921,13 +1836,13 @@
         <v>43205</v>
       </c>
       <c r="H4" t="n">
-        <v>0.036688603307383</v>
+        <v>0.590499074329381</v>
       </c>
       <c r="I4" t="n">
-        <v>0.047738451624481</v>
+        <v>0.651656867985035</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0352426321241833</v>
+        <v>0.580018526225349</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
@@ -1950,7 +1865,7 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" t="n">
         <v>70171</v>
@@ -1962,13 +1877,13 @@
         <v>68641</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0572449243475501</v>
+        <v>0.715082034036482</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0895597627923291</v>
+        <v>0.796676704277473</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0559909619635705</v>
+        <v>0.710113591690633</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
@@ -1988,10 +1903,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" t="n">
         <v>271435</v>
@@ -2001,11 +1916,11 @@
         <v>300034</v>
       </c>
       <c r="H6" t="n">
-        <v>0.221434439302237</v>
+        <v>1</v>
       </c>
       <c r="I6"/>
       <c r="J6" t="n">
-        <v>0.244739911740475</v>
+        <v>1</v>
       </c>
       <c r="K6" t="s">
         <v>16</v>
@@ -2026,7 +1941,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" t="n">
         <v>6169</v>
@@ -2038,13 +1953,13 @@
         <v>5787</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00503261943395472</v>
+        <v>0.824181696726787</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0074025433752335</v>
+        <v>0.873351939178135</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00472049790771088</v>
+        <v>0.814726172039983</v>
       </c>
       <c r="K7" t="s">
         <v>16</v>
@@ -2067,7 +1982,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" t="n">
         <v>4382</v>
@@ -2079,13 +1994,13 @@
         <v>4231</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00357479953956712</v>
+        <v>0.621736662883087</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00492768755149152</v>
+        <v>0.693809578500057</v>
       </c>
       <c r="J8" t="n">
-        <v>0.00345125741273972</v>
+        <v>0.613455125416848</v>
       </c>
       <c r="K8" t="s">
         <v>16</v>
@@ -2108,7 +2023,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" t="n">
         <v>22627</v>
@@ -2120,13 +2035,13 @@
         <v>20365</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0184589203974864</v>
+        <v>0.449251479172458</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0536205166689778</v>
+        <v>0.703243682735306</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0166118783291053</v>
+        <v>0.423353567270913</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -2149,7 +2064,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" t="n">
         <v>655535</v>
@@ -2161,13 +2076,13 @@
         <v>636168</v>
       </c>
       <c r="H10" t="n">
-        <v>0.534780058459638</v>
+        <v>0.67437570854534</v>
       </c>
       <c r="I10" t="n">
-        <v>0.647574494465426</v>
+        <v>0.714725829147719</v>
       </c>
       <c r="J10" t="n">
-        <v>0.518926855530087</v>
+        <v>0.667517281613706</v>
       </c>
       <c r="K10" t="s">
         <v>16</v>
@@ -2190,32 +2105,26 @@
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" t="n">
-        <v>1225803</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1225930</v>
-      </c>
+        <v>271435</v>
+      </c>
+      <c r="F11"/>
       <c r="G11" t="n">
-        <v>1225930</v>
+        <v>300034</v>
       </c>
       <c r="H11" t="n">
-        <v>0.724066742983516</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.72385314979715</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11"/>
       <c r="J11" t="n">
-        <v>0.72385314979715</v>
+        <v>1</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
       </c>
-      <c r="L11" t="s">
-        <v>16</v>
-      </c>
+      <c r="L11"/>
       <c r="M11" t="s">
         <v>16</v>
       </c>
@@ -2231,26 +2140,32 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" t="n">
-        <v>271435</v>
-      </c>
-      <c r="F12"/>
+        <v>294062</v>
+      </c>
+      <c r="F12" t="n">
+        <v>65735</v>
+      </c>
       <c r="G12" t="n">
-        <v>300034</v>
+        <v>320399</v>
       </c>
       <c r="H12" t="n">
-        <v>0.221434439302237</v>
-      </c>
-      <c r="I12"/>
+        <v>0.913800765069095</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.703243682735306</v>
+      </c>
       <c r="J12" t="n">
-        <v>0.244739911740475</v>
+        <v>0.920321826402174</v>
       </c>
       <c r="K12" t="s">
         <v>16</v>
       </c>
-      <c r="L12"/>
+      <c r="L12" t="s">
+        <v>16</v>
+      </c>
       <c r="M12" t="s">
         <v>16</v>
       </c>
@@ -2266,25 +2181,25 @@
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" t="n">
-        <v>294062</v>
+        <v>570268</v>
       </c>
       <c r="F13" t="n">
-        <v>65735</v>
+        <v>432049</v>
       </c>
       <c r="G13" t="n">
-        <v>320399</v>
+        <v>589762</v>
       </c>
       <c r="H13" t="n">
-        <v>0.239893359699723</v>
+        <v>0.791072023082899</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0536205166689778</v>
+        <v>0.741246731678528</v>
       </c>
       <c r="J13" t="n">
-        <v>0.26135179006958</v>
+        <v>0.79635043297087</v>
       </c>
       <c r="K13" t="s">
         <v>16</v>
@@ -2293,47 +2208,6 @@
         <v>16</v>
       </c>
       <c r="M13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" t="n">
-        <v>570268</v>
-      </c>
-      <c r="F14" t="n">
-        <v>432049</v>
-      </c>
-      <c r="G14" t="n">
-        <v>589762</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.465171747163378</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.352425505534574</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.481073144469913</v>
-      </c>
-      <c r="K14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2397,13 +2271,13 @@
         <v>2023</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" t="n">
         <v>913</v>
@@ -2415,22 +2289,22 @@
         <v>707</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00142086792775828</v>
+        <v>0.488496522204387</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00342479075477658</v>
+        <v>0.697180867912575</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00110010316384691</v>
+        <v>0.425135297654841</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -2438,13 +2312,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" t="n">
         <v>108475</v>
@@ -2456,13 +2330,13 @@
         <v>106827</v>
       </c>
       <c r="H3" t="n">
-        <v>0.168815606203263</v>
+        <v>0.700326679234563</v>
       </c>
       <c r="I3" t="n">
-        <v>0.198065249966157</v>
+        <v>0.732633832729952</v>
       </c>
       <c r="J3" t="n">
-        <v>0.166224498846214</v>
+        <v>0.696940240083507</v>
       </c>
       <c r="K3" t="s">
         <v>16</v>
@@ -2479,13 +2353,13 @@
         <v>2023</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" t="n">
         <v>27415</v>
@@ -2497,13 +2371,13 @@
         <v>26427</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0426649444025118</v>
+        <v>0.565420946252526</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0516892885429001</v>
+        <v>0.611880641002026</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0411208292941757</v>
+        <v>0.556381321318792</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
@@ -2520,13 +2394,13 @@
         <v>2023</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" t="n">
         <v>37020</v>
@@ -2538,13 +2412,13 @@
         <v>36360</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0576128485055987</v>
+        <v>0.683265351322419</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0885544146501999</v>
+        <v>0.768195561794719</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0565767341406981</v>
+        <v>0.679207217977696</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
@@ -2561,13 +2435,13 @@
         <v>2023</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" t="n">
         <v>141589</v>
@@ -2577,11 +2451,11 @@
         <v>153644</v>
       </c>
       <c r="H6" t="n">
-        <v>0.220349692249033</v>
+        <v>1</v>
       </c>
       <c r="I6"/>
       <c r="J6" t="n">
-        <v>0.23907249010763</v>
+        <v>1</v>
       </c>
       <c r="K6" t="s">
         <v>16</v>
@@ -2596,13 +2470,13 @@
         <v>2023</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" t="n">
         <v>2941</v>
@@ -2614,13 +2488,13 @@
         <v>2666</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00457696886696288</v>
+        <v>0.783848614072495</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0066379633620522</v>
+        <v>0.840259996060666</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00414833809733501</v>
+        <v>0.76675294794363</v>
       </c>
       <c r="K7" t="s">
         <v>16</v>
@@ -2637,13 +2511,13 @@
         <v>2023</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" t="n">
         <v>2360</v>
@@ -2655,13 +2529,13 @@
         <v>2331</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00367278018566215</v>
+        <v>0.651933701657459</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00500881482945289</v>
+        <v>0.718687206965841</v>
       </c>
       <c r="J8" t="n">
-        <v>0.00362707280753485</v>
+        <v>0.649122807017544</v>
       </c>
       <c r="K8" t="s">
         <v>16</v>
@@ -2678,13 +2552,13 @@
         <v>2023</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" t="n">
         <v>10640</v>
@@ -2696,13 +2570,13 @@
         <v>9604</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0165586360912904</v>
+        <v>0.377412031782066</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0496758041100601</v>
+        <v>0.645249307759161</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0149439756514649</v>
+        <v>0.353660332891442</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -2719,13 +2593,13 @@
         <v>2023</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" t="n">
         <v>311212</v>
@@ -2737,13 +2611,13 @@
         <v>304101</v>
       </c>
       <c r="H10" t="n">
-        <v>0.484327655567919</v>
+        <v>0.63400602201008</v>
       </c>
       <c r="I10" t="n">
-        <v>0.596943673784402</v>
+        <v>0.680792313944285</v>
       </c>
       <c r="J10" t="n">
-        <v>0.473185957891101</v>
+        <v>0.628335113713612</v>
       </c>
       <c r="K10" t="s">
         <v>16</v>
@@ -2760,38 +2634,32 @@
         <v>2023</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" t="n">
-        <v>642565</v>
-      </c>
-      <c r="F11" t="n">
-        <v>642667</v>
-      </c>
+        <v>141589</v>
+      </c>
+      <c r="F11"/>
       <c r="G11" t="n">
-        <v>642667</v>
+        <v>153644</v>
       </c>
       <c r="H11" t="n">
-        <v>0.692832043232659</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.692662701102907</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11"/>
       <c r="J11" t="n">
-        <v>0.692662701102907</v>
+        <v>1</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
       </c>
-      <c r="L11" t="s">
-        <v>16</v>
-      </c>
+      <c r="L11"/>
       <c r="M11" t="s">
         <v>16</v>
       </c>
@@ -2801,32 +2669,38 @@
         <v>2023</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" t="n">
-        <v>141589</v>
-      </c>
-      <c r="F12"/>
+        <v>152229</v>
+      </c>
+      <c r="F12" t="n">
+        <v>31925</v>
+      </c>
       <c r="G12" t="n">
-        <v>153644</v>
+        <v>163248</v>
       </c>
       <c r="H12" t="n">
-        <v>0.220349692249033</v>
-      </c>
-      <c r="I12"/>
+        <v>0.89661976310659</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.645249307759161</v>
+      </c>
       <c r="J12" t="n">
-        <v>0.23907249010763</v>
+        <v>0.902920353982301</v>
       </c>
       <c r="K12" t="s">
         <v>16</v>
       </c>
-      <c r="L12"/>
+      <c r="L12" t="s">
+        <v>16</v>
+      </c>
       <c r="M12" t="s">
         <v>16</v>
       </c>
@@ -2836,31 +2710,31 @@
         <v>2023</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" t="n">
-        <v>152229</v>
+        <v>331353</v>
       </c>
       <c r="F13" t="n">
-        <v>31925</v>
+        <v>259031</v>
       </c>
       <c r="G13" t="n">
-        <v>163248</v>
+        <v>338566</v>
       </c>
       <c r="H13" t="n">
-        <v>0.236908328340324</v>
+        <v>0.758972561792657</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0496758041100601</v>
+        <v>0.71102394409111</v>
       </c>
       <c r="J13" t="n">
-        <v>0.254016465759095</v>
+        <v>0.762807485546658</v>
       </c>
       <c r="K13" t="s">
         <v>16</v>
@@ -2869,47 +2743,6 @@
         <v>16</v>
       </c>
       <c r="M13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" t="n">
-        <v>331353</v>
-      </c>
-      <c r="F14" t="n">
-        <v>259031</v>
-      </c>
-      <c r="G14" t="n">
-        <v>338566</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.515590500212396</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.403056326215598</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.526814042108899</v>
-      </c>
-      <c r="K14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2973,13 +2806,13 @@
         <v>2023</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" t="n">
         <v>290</v>
@@ -2991,22 +2824,22 @@
         <v>277</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00353589543503707</v>
+        <v>0.472312703583062</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0074131876706984</v>
+        <v>0.652360515021459</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00337738977760437</v>
+        <v>0.46089850249584</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -3014,13 +2847,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" t="n">
         <v>2406</v>
@@ -3032,13 +2865,13 @@
         <v>2300</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0293357393679282</v>
+        <v>0.775128865979381</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0429794186500195</v>
+        <v>0.83471465782619</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0280433086227078</v>
+        <v>0.767178118745831</v>
       </c>
       <c r="K3" t="s">
         <v>16</v>
@@ -3055,13 +2888,13 @@
         <v>2023</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" t="n">
         <v>851</v>
@@ -3073,22 +2906,22 @@
         <v>825</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0103760241904019</v>
+        <v>0.53656998738966</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0221420210690597</v>
+        <v>0.71187769502156</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0100590128755365</v>
+        <v>0.528846153846154</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -3096,13 +2929,13 @@
         <v>2023</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" t="n">
         <v>2756</v>
@@ -3114,13 +2947,13 @@
         <v>2723</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0336031993757316</v>
+        <v>0.70020325203252</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0735344323058915</v>
+        <v>0.836361114963251</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0332008388607101</v>
+        <v>0.697668460158852</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
@@ -3137,13 +2970,13 @@
         <v>2023</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" t="n">
         <v>18611</v>
@@ -3153,11 +2986,11 @@
         <v>20793</v>
       </c>
       <c r="H6" t="n">
-        <v>0.226919137729224</v>
+        <v>1</v>
       </c>
       <c r="I6"/>
       <c r="J6" t="n">
-        <v>0.253523702692158</v>
+        <v>1</v>
       </c>
       <c r="K6" t="s">
         <v>16</v>
@@ -3172,13 +3005,13 @@
         <v>2023</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" t="n">
         <v>295</v>
@@ -3190,22 +3023,22 @@
         <v>295</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00359685914943426</v>
+        <v>0.916149068322981</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00897385875926648</v>
+        <v>0.964613368283093</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00359685914943426</v>
+        <v>0.916149068322981</v>
       </c>
       <c r="K7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -3213,13 +3046,13 @@
         <v>2023</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" t="n">
         <v>293</v>
@@ -3231,22 +3064,22 @@
         <v>293</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00357247366367538</v>
+        <v>0.463607594936709</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00480394069449863</v>
+        <v>0.537517053206003</v>
       </c>
       <c r="J8" t="n">
-        <v>0.00357247366367538</v>
+        <v>0.463607594936709</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -3254,13 +3087,13 @@
         <v>2023</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" t="n">
         <v>1523</v>
@@ -3272,13 +3105,13 @@
         <v>1384</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0185695474053843</v>
+        <v>0.490341274951706</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0508437378072571</v>
+        <v>0.724839214322962</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0168747561451424</v>
+        <v>0.466464442197506</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -3295,13 +3128,13 @@
         <v>2023</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" t="n">
         <v>54991</v>
@@ -3313,13 +3146,13 @@
         <v>53126</v>
       </c>
       <c r="H10" t="n">
-        <v>0.670491123683184</v>
+        <v>0.729972256514409</v>
       </c>
       <c r="I10" t="n">
-        <v>0.789309403043309</v>
+        <v>0.760722931208724</v>
       </c>
       <c r="J10" t="n">
-        <v>0.647751658213032</v>
+        <v>0.722920748965818</v>
       </c>
       <c r="K10" t="s">
         <v>16</v>
@@ -3336,38 +3169,32 @@
         <v>2023</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" t="n">
-        <v>82016</v>
-      </c>
-      <c r="F11" t="n">
-        <v>82016</v>
-      </c>
+        <v>18611</v>
+      </c>
+      <c r="F11"/>
       <c r="G11" t="n">
-        <v>82016</v>
+        <v>20793</v>
       </c>
       <c r="H11" t="n">
-        <v>0.764760732535154</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.764618138424821</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11"/>
       <c r="J11" t="n">
-        <v>0.764618138424821</v>
+        <v>1</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
       </c>
-      <c r="L11" t="s">
-        <v>16</v>
-      </c>
+      <c r="L11"/>
       <c r="M11" t="s">
         <v>16</v>
       </c>
@@ -3377,32 +3204,38 @@
         <v>2023</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" t="n">
-        <v>18611</v>
-      </c>
-      <c r="F12"/>
+        <v>20134</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4170</v>
+      </c>
       <c r="G12" t="n">
-        <v>20793</v>
+        <v>22177</v>
       </c>
       <c r="H12" t="n">
-        <v>0.226919137729224</v>
-      </c>
-      <c r="I12"/>
+        <v>0.927107795736059</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.724839214322962</v>
+      </c>
       <c r="J12" t="n">
-        <v>0.253523702692158</v>
+        <v>0.933375420875421</v>
       </c>
       <c r="K12" t="s">
         <v>16</v>
       </c>
-      <c r="L12"/>
+      <c r="L12" t="s">
+        <v>16</v>
+      </c>
       <c r="M12" t="s">
         <v>16</v>
       </c>
@@ -3412,31 +3245,31 @@
         <v>2023</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" t="n">
-        <v>20134</v>
+        <v>27025</v>
       </c>
       <c r="F13" t="n">
-        <v>4170</v>
+        <v>17280</v>
       </c>
       <c r="G13" t="n">
-        <v>22177</v>
+        <v>28890</v>
       </c>
       <c r="H13" t="n">
-        <v>0.245488685134608</v>
+        <v>0.846886653505061</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0508437378072571</v>
+        <v>0.77957231796445</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2703984588373</v>
+        <v>0.855341070582662</v>
       </c>
       <c r="K13" t="s">
         <v>16</v>
@@ -3445,47 +3278,6 @@
         <v>16</v>
       </c>
       <c r="M13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" t="n">
-        <v>27025</v>
-      </c>
-      <c r="F14" t="n">
-        <v>17280</v>
-      </c>
-      <c r="G14" t="n">
-        <v>28890</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.329508876316816</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.210690596956691</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.352248341786968</v>
-      </c>
-      <c r="K14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3549,13 +3341,13 @@
         <v>2023</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" t="n">
         <v>727</v>
@@ -3567,22 +3359,22 @@
         <v>675</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00277929634486212</v>
+        <v>0.518544935805991</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00665132529567817</v>
+        <v>0.720496894409938</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00258025550263377</v>
+        <v>0.5</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -3590,13 +3382,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" t="n">
         <v>11192</v>
@@ -3608,13 +3400,13 @@
         <v>10536</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0427866364397481</v>
+        <v>0.696236391912908</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0607564162353499</v>
+        <v>0.764980507291717</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0402749214455547</v>
+        <v>0.683312795901161</v>
       </c>
       <c r="K3" t="s">
         <v>16</v>
@@ -3631,13 +3423,13 @@
         <v>2023</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" t="n">
         <v>11103</v>
@@ -3649,13 +3441,13 @@
         <v>10470</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0424463924580525</v>
+        <v>0.609920896506262</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0600568802990803</v>
+        <v>0.688716465018411</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0400226297964083</v>
+        <v>0.59586819190712</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
@@ -3672,13 +3464,13 @@
         <v>2023</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" t="n">
         <v>15845</v>
@@ -3690,13 +3482,13 @@
         <v>15451</v>
       </c>
       <c r="H5" t="n">
-        <v>0.060574897640083</v>
+        <v>0.729881615919665</v>
       </c>
       <c r="I5" t="n">
-        <v>0.098374630163378</v>
+        <v>0.813137855856425</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0590630041054732</v>
+        <v>0.723192136672127</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
@@ -3713,13 +3505,13 @@
         <v>2023</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" t="n">
         <v>65107</v>
@@ -3729,11 +3521,11 @@
         <v>73546</v>
       </c>
       <c r="H6" t="n">
-        <v>0.248901852991662</v>
+        <v>1</v>
       </c>
       <c r="I6"/>
       <c r="J6" t="n">
-        <v>0.281136994365487</v>
+        <v>1</v>
       </c>
       <c r="K6" t="s">
         <v>16</v>
@@ -3748,13 +3540,13 @@
         <v>2023</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" t="n">
         <v>2479</v>
@@ -3766,13 +3558,13 @@
         <v>2406</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00947713292835379</v>
+        <v>0.873502466525722</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0126489858640224</v>
+        <v>0.902126499454744</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00919717739161016</v>
+        <v>0.870162748643761</v>
       </c>
       <c r="K7" t="s">
         <v>16</v>
@@ -3789,13 +3581,13 @@
         <v>2023</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" t="n">
         <v>939</v>
@@ -3807,22 +3599,22 @@
         <v>843</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00358976515519331</v>
+        <v>0.653444676409186</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00444186206527473</v>
+        <v>0.7</v>
       </c>
       <c r="J8" t="n">
-        <v>0.00322245242773373</v>
+        <v>0.628635346756152</v>
       </c>
       <c r="K8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -3830,13 +3622,13 @@
         <v>2023</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" t="n">
         <v>6495</v>
@@ -3848,13 +3640,13 @@
         <v>5686</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0248301647316087</v>
+        <v>0.555603079555175</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0716737639620492</v>
+        <v>0.783044476926289</v>
       </c>
       <c r="J9" t="n">
-        <v>0.021735307834038</v>
+        <v>0.522562264497748</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -3871,13 +3663,13 @@
         <v>2023</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" t="n">
         <v>147690</v>
@@ -3889,13 +3681,13 @@
         <v>141989</v>
       </c>
       <c r="H10" t="n">
-        <v>0.564613861310436</v>
+        <v>0.70972392416925</v>
       </c>
       <c r="I10" t="n">
-        <v>0.685396136115167</v>
+        <v>0.747776077137698</v>
       </c>
       <c r="J10" t="n">
-        <v>0.542767257131062</v>
+        <v>0.701294531948416</v>
       </c>
       <c r="K10" t="s">
         <v>16</v>
@@ -3912,38 +3704,32 @@
         <v>2023</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" t="n">
-        <v>261577</v>
-      </c>
-      <c r="F11" t="n">
-        <v>261602</v>
-      </c>
+        <v>65107</v>
+      </c>
+      <c r="F11"/>
       <c r="G11" t="n">
-        <v>261602</v>
+        <v>73546</v>
       </c>
       <c r="H11" t="n">
-        <v>0.754787812683051</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.754537719386799</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11"/>
       <c r="J11" t="n">
-        <v>0.754537719386799</v>
+        <v>1</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
       </c>
-      <c r="L11" t="s">
-        <v>16</v>
-      </c>
+      <c r="L11"/>
       <c r="M11" t="s">
         <v>16</v>
       </c>
@@ -3953,32 +3739,38 @@
         <v>2023</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" t="n">
-        <v>65107</v>
-      </c>
-      <c r="F12"/>
+        <v>71602</v>
+      </c>
+      <c r="F12" t="n">
+        <v>18750</v>
+      </c>
       <c r="G12" t="n">
-        <v>73546</v>
+        <v>79232</v>
       </c>
       <c r="H12" t="n">
-        <v>0.248901852991662</v>
-      </c>
-      <c r="I12"/>
+        <v>0.932354128416475</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.783044476926289</v>
+      </c>
       <c r="J12" t="n">
-        <v>0.281136994365487</v>
+        <v>0.938467551849527</v>
       </c>
       <c r="K12" t="s">
         <v>16</v>
       </c>
-      <c r="L12"/>
+      <c r="L12" t="s">
+        <v>16</v>
+      </c>
       <c r="M12" t="s">
         <v>16</v>
       </c>
@@ -3988,31 +3780,31 @@
         <v>2023</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" t="n">
-        <v>71602</v>
+        <v>113887</v>
       </c>
       <c r="F13" t="n">
-        <v>18750</v>
+        <v>82301</v>
       </c>
       <c r="G13" t="n">
-        <v>79232</v>
+        <v>119613</v>
       </c>
       <c r="H13" t="n">
-        <v>0.273732017723271</v>
+        <v>0.822514480507287</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0716737639620492</v>
+        <v>0.769700540560762</v>
       </c>
       <c r="J13" t="n">
-        <v>0.302872302199524</v>
+        <v>0.829275225668686</v>
       </c>
       <c r="K13" t="s">
         <v>16</v>
@@ -4021,47 +3813,6 @@
         <v>16</v>
       </c>
       <c r="M13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" t="n">
-        <v>113887</v>
-      </c>
-      <c r="F14" t="n">
-        <v>82301</v>
-      </c>
-      <c r="G14" t="n">
-        <v>119613</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.435344531005115</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.314603863884833</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.457232742868938</v>
-      </c>
-      <c r="K14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4125,13 +3876,13 @@
         <v>2023</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" t="n">
         <v>621</v>
@@ -4143,22 +3894,22 @@
         <v>565</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00259133301341568</v>
+        <v>0.703284258210646</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0062592584865113</v>
+        <v>0.851305334846765</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00235765402991926</v>
+        <v>0.683192261185006</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -4166,13 +3917,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" t="n">
         <v>25887</v>
@@ -4184,13 +3935,13 @@
         <v>25612</v>
       </c>
       <c r="H3" t="n">
-        <v>0.108022282960212</v>
+        <v>0.824006875477464</v>
       </c>
       <c r="I3" t="n">
-        <v>0.125694256087129</v>
+        <v>0.844605204127411</v>
       </c>
       <c r="J3" t="n">
-        <v>0.106874752237685</v>
+        <v>0.822109520446813</v>
       </c>
       <c r="K3" t="s">
         <v>16</v>
@@ -4207,13 +3958,13 @@
         <v>2023</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" t="n">
         <v>5604</v>
@@ -4225,13 +3976,13 @@
         <v>5483</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0233845897056062</v>
+        <v>0.710716550412175</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0324563416720566</v>
+        <v>0.765928114229444</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0228796761876943</v>
+        <v>0.697582697201018</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
@@ -4248,13 +3999,13 @@
         <v>2023</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" t="n">
         <v>14550</v>
@@ -4266,13 +4017,13 @@
         <v>14107</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0607148073191596</v>
+        <v>0.794908216783217</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0881178409731061</v>
+        <v>0.849061155562704</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0588662396461433</v>
+        <v>0.789821398577907</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
@@ -4289,13 +4040,13 @@
         <v>2023</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" t="n">
         <v>46128</v>
@@ -4305,11 +4056,11 @@
         <v>52051</v>
       </c>
       <c r="H6" t="n">
-        <v>0.192484716977195</v>
+        <v>1</v>
       </c>
       <c r="I6"/>
       <c r="J6" t="n">
-        <v>0.217200442320933</v>
+        <v>1</v>
       </c>
       <c r="K6" t="s">
         <v>16</v>
@@ -4324,13 +4075,13 @@
         <v>2023</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" t="n">
         <v>454</v>
@@ -4342,22 +4093,22 @@
         <v>420</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00189446890191742</v>
+        <v>0.792321116928447</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00318804898912975</v>
+        <v>0.865232163080408</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00175259237622316</v>
+        <v>0.779220779220779</v>
       </c>
       <c r="K7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -4365,13 +4116,13 @@
         <v>2023</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" t="n">
         <v>790</v>
@@ -4383,22 +4134,22 @@
         <v>764</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00329654280289595</v>
+        <v>0.5813097866078</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00528281416261554</v>
+        <v>0.68991825613079</v>
       </c>
       <c r="J8" t="n">
-        <v>0.00318804898912975</v>
+        <v>0.573143285821455</v>
       </c>
       <c r="K8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -4406,13 +4157,13 @@
         <v>2023</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" t="n">
         <v>3969</v>
@@ -4424,13 +4175,13 @@
         <v>3691</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0165619979553089</v>
+        <v>0.537950664136622</v>
       </c>
       <c r="I9" t="n">
-        <v>0.045442216612072</v>
+        <v>0.761591719700678</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0154019487158088</v>
+        <v>0.519859154929577</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -4447,13 +4198,13 @@
         <v>2023</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" t="n">
         <v>141642</v>
@@ -4465,13 +4216,13 @@
         <v>136952</v>
       </c>
       <c r="H10" t="n">
-        <v>0.591049260364289</v>
+        <v>0.716202823510376</v>
       </c>
       <c r="I10" t="n">
-        <v>0.69355922301738</v>
+        <v>0.747479290153716</v>
       </c>
       <c r="J10" t="n">
-        <v>0.571478645496464</v>
+        <v>0.709221033443465</v>
       </c>
       <c r="K10" t="s">
         <v>16</v>
@@ -4488,38 +4239,32 @@
         <v>2023</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" t="n">
-        <v>239645</v>
-      </c>
-      <c r="F11" t="n">
-        <v>239645</v>
-      </c>
+        <v>46128</v>
+      </c>
+      <c r="F11"/>
       <c r="G11" t="n">
-        <v>239645</v>
+        <v>52051</v>
       </c>
       <c r="H11" t="n">
-        <v>0.76884701020873</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.768519082696495</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11"/>
       <c r="J11" t="n">
-        <v>0.768519082696495</v>
+        <v>1</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
       </c>
-      <c r="L11" t="s">
-        <v>16</v>
-      </c>
+      <c r="L11"/>
       <c r="M11" t="s">
         <v>16</v>
       </c>
@@ -4529,32 +4274,38 @@
         <v>2023</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" t="n">
-        <v>46128</v>
-      </c>
-      <c r="F12"/>
+        <v>50097</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10890</v>
+      </c>
       <c r="G12" t="n">
-        <v>52051</v>
+        <v>55742</v>
       </c>
       <c r="H12" t="n">
-        <v>0.192484716977195</v>
-      </c>
-      <c r="I12"/>
+        <v>0.93628751915673</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.761591719700678</v>
+      </c>
       <c r="J12" t="n">
-        <v>0.217200442320933</v>
+        <v>0.942367838244493</v>
       </c>
       <c r="K12" t="s">
         <v>16</v>
       </c>
-      <c r="L12"/>
+      <c r="L12" t="s">
+        <v>16</v>
+      </c>
       <c r="M12" t="s">
         <v>16</v>
       </c>
@@ -4564,31 +4315,31 @@
         <v>2023</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" t="n">
-        <v>50097</v>
+        <v>98003</v>
       </c>
       <c r="F13" t="n">
-        <v>10890</v>
+        <v>73437</v>
       </c>
       <c r="G13" t="n">
-        <v>55742</v>
+        <v>102693</v>
       </c>
       <c r="H13" t="n">
-        <v>0.209046714932504</v>
+        <v>0.860233835998806</v>
       </c>
       <c r="I13" t="n">
-        <v>0.045442216612072</v>
+        <v>0.820809442376689</v>
       </c>
       <c r="J13" t="n">
-        <v>0.232602391036742</v>
+        <v>0.864965255843335</v>
       </c>
       <c r="K13" t="s">
         <v>16</v>
@@ -4597,47 +4348,6 @@
         <v>16</v>
       </c>
       <c r="M13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" t="n">
-        <v>98003</v>
-      </c>
-      <c r="F14" t="n">
-        <v>73437</v>
-      </c>
-      <c r="G14" t="n">
-        <v>102693</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.408950739635711</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.30644077698262</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.428521354503536</v>
-      </c>
-      <c r="K14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4701,7 +4411,7 @@
         <v>2023</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -4719,22 +4429,22 @@
         <v>707</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00142086792775828</v>
+        <v>0.488496522204387</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00342479075477658</v>
+        <v>0.697180867912575</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00110010316384691</v>
+        <v>0.425135297654841</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -4742,7 +4452,7 @@
         <v>2023</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -4760,13 +4470,13 @@
         <v>106827</v>
       </c>
       <c r="H3" t="n">
-        <v>0.168815606203263</v>
+        <v>0.700326679234563</v>
       </c>
       <c r="I3" t="n">
-        <v>0.198065249966157</v>
+        <v>0.732633832729952</v>
       </c>
       <c r="J3" t="n">
-        <v>0.166224498846214</v>
+        <v>0.696940240083507</v>
       </c>
       <c r="K3" t="s">
         <v>16</v>
@@ -4783,7 +4493,7 @@
         <v>2023</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -4801,13 +4511,13 @@
         <v>26427</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0426649444025118</v>
+        <v>0.565420946252526</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0516892885429001</v>
+        <v>0.611880641002026</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0411208292941757</v>
+        <v>0.556381321318792</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
@@ -4824,7 +4534,7 @@
         <v>2023</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -4842,13 +4552,13 @@
         <v>36360</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0576128485055987</v>
+        <v>0.683265351322419</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0885544146501999</v>
+        <v>0.768195561794719</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0565767341406981</v>
+        <v>0.679207217977696</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
@@ -4865,7 +4575,7 @@
         <v>2023</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -4881,11 +4591,11 @@
         <v>15056</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0210609043443076</v>
+        <v>1</v>
       </c>
       <c r="I6"/>
       <c r="J6" t="n">
-        <v>0.0234273737409887</v>
+        <v>1</v>
       </c>
       <c r="K6" t="s">
         <v>16</v>
@@ -4900,7 +4610,7 @@
         <v>2023</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -4916,11 +4626,11 @@
         <v>40244</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0611191085726736</v>
+        <v>1</v>
       </c>
       <c r="I7"/>
       <c r="J7" t="n">
-        <v>0.062620299470799</v>
+        <v>1</v>
       </c>
       <c r="K7" t="s">
         <v>16</v>
@@ -4935,7 +4645,7 @@
         <v>2023</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -4951,11 +4661,11 @@
         <v>84635</v>
       </c>
       <c r="H8" t="n">
-        <v>0.120145043692078</v>
+        <v>1</v>
       </c>
       <c r="I8"/>
       <c r="J8" t="n">
-        <v>0.131693396424587</v>
+        <v>1</v>
       </c>
       <c r="K8" t="s">
         <v>16</v>
@@ -4970,7 +4680,7 @@
         <v>2023</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
@@ -4986,11 +4696,11 @@
         <v>13709</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0180246356399742</v>
+        <v>1</v>
       </c>
       <c r="I9"/>
       <c r="J9" t="n">
-        <v>0.0213314204712549</v>
+        <v>1</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -5005,7 +4715,7 @@
         <v>2023</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
@@ -5023,13 +4733,13 @@
         <v>2666</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00457696886696288</v>
+        <v>0.783848614072495</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0066379633620522</v>
+        <v>0.840259996060666</v>
       </c>
       <c r="J10" t="n">
-        <v>0.00414833809733501</v>
+        <v>0.76675294794363</v>
       </c>
       <c r="K10" t="s">
         <v>16</v>
@@ -5046,7 +4756,7 @@
         <v>2023</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
@@ -5064,13 +4774,13 @@
         <v>2331</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00367278018566215</v>
+        <v>0.651933701657459</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00500881482945289</v>
+        <v>0.718687206965841</v>
       </c>
       <c r="J11" t="n">
-        <v>0.00362707280753485</v>
+        <v>0.649122807017544</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
@@ -5087,7 +4797,7 @@
         <v>2023</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
@@ -5105,13 +4815,13 @@
         <v>9604</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0165586360912904</v>
+        <v>0.377412031782066</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0496758041100601</v>
+        <v>0.645249307759161</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0149439756514649</v>
+        <v>0.353660332891442</v>
       </c>
       <c r="K12" t="s">
         <v>16</v>
@@ -5128,7 +4838,7 @@
         <v>2023</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -5146,13 +4856,13 @@
         <v>304101</v>
       </c>
       <c r="H13" t="n">
-        <v>0.484327655567919</v>
+        <v>0.63400602201008</v>
       </c>
       <c r="I13" t="n">
-        <v>0.596943673784402</v>
+        <v>0.680792313944285</v>
       </c>
       <c r="J13" t="n">
-        <v>0.473185957891101</v>
+        <v>0.628335113713612</v>
       </c>
       <c r="K13" t="s">
         <v>16</v>
@@ -5169,7 +4879,7 @@
         <v>2023</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -5178,29 +4888,23 @@
         <v>15</v>
       </c>
       <c r="E14" t="n">
-        <v>642565</v>
-      </c>
-      <c r="F14" t="n">
-        <v>642667</v>
-      </c>
+        <v>141589</v>
+      </c>
+      <c r="F14"/>
       <c r="G14" t="n">
-        <v>642667</v>
+        <v>153644</v>
       </c>
       <c r="H14" t="n">
-        <v>0.692832043232659</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.692662701102907</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14"/>
       <c r="J14" t="n">
-        <v>0.692662701102907</v>
+        <v>1</v>
       </c>
       <c r="K14" t="s">
         <v>16</v>
       </c>
-      <c r="L14" t="s">
-        <v>16</v>
-      </c>
+      <c r="L14"/>
       <c r="M14" t="s">
         <v>16</v>
       </c>
@@ -5210,7 +4914,7 @@
         <v>2023</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -5219,23 +4923,29 @@
         <v>15</v>
       </c>
       <c r="E15" t="n">
-        <v>141589</v>
-      </c>
-      <c r="F15"/>
+        <v>152229</v>
+      </c>
+      <c r="F15" t="n">
+        <v>31925</v>
+      </c>
       <c r="G15" t="n">
-        <v>153644</v>
+        <v>163248</v>
       </c>
       <c r="H15" t="n">
-        <v>0.220349692249033</v>
-      </c>
-      <c r="I15"/>
+        <v>0.89661976310659</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.645249307759161</v>
+      </c>
       <c r="J15" t="n">
-        <v>0.23907249010763</v>
+        <v>0.902920353982301</v>
       </c>
       <c r="K15" t="s">
         <v>16</v>
       </c>
-      <c r="L15"/>
+      <c r="L15" t="s">
+        <v>16</v>
+      </c>
       <c r="M15" t="s">
         <v>16</v>
       </c>
@@ -5245,7 +4955,7 @@
         <v>2023</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
@@ -5254,22 +4964,22 @@
         <v>15</v>
       </c>
       <c r="E16" t="n">
-        <v>152229</v>
+        <v>331353</v>
       </c>
       <c r="F16" t="n">
-        <v>31925</v>
+        <v>259031</v>
       </c>
       <c r="G16" t="n">
-        <v>163248</v>
+        <v>338566</v>
       </c>
       <c r="H16" t="n">
-        <v>0.236908328340324</v>
+        <v>0.758972561792657</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0496758041100601</v>
+        <v>0.71102394409111</v>
       </c>
       <c r="J16" t="n">
-        <v>0.254016465759095</v>
+        <v>0.762807485546658</v>
       </c>
       <c r="K16" t="s">
         <v>16</v>
@@ -5278,47 +4988,6 @@
         <v>16</v>
       </c>
       <c r="M16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" t="n">
-        <v>331353</v>
-      </c>
-      <c r="F17" t="n">
-        <v>259031</v>
-      </c>
-      <c r="G17" t="n">
-        <v>338566</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.515590500212396</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.403056326215598</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.526814042108899</v>
-      </c>
-      <c r="K17" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5382,7 +5051,7 @@
         <v>2023</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -5400,22 +5069,22 @@
         <v>277</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00353589543503707</v>
+        <v>0.472312703583062</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0074131876706984</v>
+        <v>0.652360515021459</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00337738977760437</v>
+        <v>0.46089850249584</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -5423,7 +5092,7 @@
         <v>2023</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -5441,13 +5110,13 @@
         <v>2300</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0293357393679282</v>
+        <v>0.775128865979381</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0429794186500195</v>
+        <v>0.83471465782619</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0280433086227078</v>
+        <v>0.767178118745831</v>
       </c>
       <c r="K3" t="s">
         <v>16</v>
@@ -5464,7 +5133,7 @@
         <v>2023</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -5482,22 +5151,22 @@
         <v>825</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0103760241904019</v>
+        <v>0.53656998738966</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0221420210690597</v>
+        <v>0.71187769502156</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0100590128755365</v>
+        <v>0.528846153846154</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -5505,7 +5174,7 @@
         <v>2023</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -5523,13 +5192,13 @@
         <v>2723</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0336031993757316</v>
+        <v>0.70020325203252</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0735344323058915</v>
+        <v>0.836361114963251</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0332008388607101</v>
+        <v>0.697668460158852</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
@@ -5546,7 +5215,7 @@
         <v>2023</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -5562,18 +5231,18 @@
         <v>955</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0100833983612954</v>
+        <v>1</v>
       </c>
       <c r="I6"/>
       <c r="J6" t="n">
-        <v>0.0116440694498634</v>
+        <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L6"/>
       <c r="M6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -5581,7 +5250,7 @@
         <v>2023</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -5597,11 +5266,11 @@
         <v>3614</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0433452009364027</v>
+        <v>1</v>
       </c>
       <c r="I7"/>
       <c r="J7" t="n">
-        <v>0.0440645727662895</v>
+        <v>1</v>
       </c>
       <c r="K7" t="s">
         <v>16</v>
@@ -5616,7 +5285,7 @@
         <v>2023</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -5632,11 +5301,11 @@
         <v>14359</v>
       </c>
       <c r="H8" t="n">
-        <v>0.152372707764339</v>
+        <v>1</v>
       </c>
       <c r="I8"/>
       <c r="J8" t="n">
-        <v>0.175075595005853</v>
+        <v>1</v>
       </c>
       <c r="K8" t="s">
         <v>16</v>
@@ -5651,7 +5320,7 @@
         <v>2023</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
@@ -5667,11 +5336,11 @@
         <v>1865</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0211178306671869</v>
+        <v>1</v>
       </c>
       <c r="I9"/>
       <c r="J9" t="n">
-        <v>0.0227394654701522</v>
+        <v>1</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -5686,7 +5355,7 @@
         <v>2023</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
@@ -5704,22 +5373,22 @@
         <v>295</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00359685914943426</v>
+        <v>0.916149068322981</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00897385875926648</v>
+        <v>0.964613368283093</v>
       </c>
       <c r="J10" t="n">
-        <v>0.00359685914943426</v>
+        <v>0.916149068322981</v>
       </c>
       <c r="K10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -5727,7 +5396,7 @@
         <v>2023</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
@@ -5745,22 +5414,22 @@
         <v>293</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00357247366367538</v>
+        <v>0.463607594936709</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00480394069449863</v>
+        <v>0.537517053206003</v>
       </c>
       <c r="J11" t="n">
-        <v>0.00357247366367538</v>
+        <v>0.463607594936709</v>
       </c>
       <c r="K11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -5768,7 +5437,7 @@
         <v>2023</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
@@ -5786,13 +5455,13 @@
         <v>1384</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0185695474053843</v>
+        <v>0.490341274951706</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0508437378072571</v>
+        <v>0.724839214322962</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0168747561451424</v>
+        <v>0.466464442197506</v>
       </c>
       <c r="K12" t="s">
         <v>16</v>
@@ -5809,7 +5478,7 @@
         <v>2023</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -5827,13 +5496,13 @@
         <v>53126</v>
       </c>
       <c r="H13" t="n">
-        <v>0.670491123683184</v>
+        <v>0.729972256514409</v>
       </c>
       <c r="I13" t="n">
-        <v>0.789309403043309</v>
+        <v>0.760722931208724</v>
       </c>
       <c r="J13" t="n">
-        <v>0.647751658213032</v>
+        <v>0.722920748965818</v>
       </c>
       <c r="K13" t="s">
         <v>16</v>
@@ -5850,7 +5519,7 @@
         <v>2023</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -5859,29 +5528,23 @@
         <v>15</v>
       </c>
       <c r="E14" t="n">
-        <v>82016</v>
-      </c>
-      <c r="F14" t="n">
-        <v>82016</v>
-      </c>
+        <v>18611</v>
+      </c>
+      <c r="F14"/>
       <c r="G14" t="n">
-        <v>82016</v>
+        <v>20793</v>
       </c>
       <c r="H14" t="n">
-        <v>0.764760732535154</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.764618138424821</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14"/>
       <c r="J14" t="n">
-        <v>0.764618138424821</v>
+        <v>1</v>
       </c>
       <c r="K14" t="s">
         <v>16</v>
       </c>
-      <c r="L14" t="s">
-        <v>16</v>
-      </c>
+      <c r="L14"/>
       <c r="M14" t="s">
         <v>16</v>
       </c>
@@ -5891,7 +5554,7 @@
         <v>2023</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -5900,23 +5563,29 @@
         <v>15</v>
       </c>
       <c r="E15" t="n">
-        <v>18611</v>
-      </c>
-      <c r="F15"/>
+        <v>20134</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4170</v>
+      </c>
       <c r="G15" t="n">
-        <v>20793</v>
+        <v>22177</v>
       </c>
       <c r="H15" t="n">
-        <v>0.226919137729224</v>
-      </c>
-      <c r="I15"/>
+        <v>0.927107795736059</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.724839214322962</v>
+      </c>
       <c r="J15" t="n">
-        <v>0.253523702692158</v>
+        <v>0.933375420875421</v>
       </c>
       <c r="K15" t="s">
         <v>16</v>
       </c>
-      <c r="L15"/>
+      <c r="L15" t="s">
+        <v>16</v>
+      </c>
       <c r="M15" t="s">
         <v>16</v>
       </c>
@@ -5926,7 +5595,7 @@
         <v>2023</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
@@ -5935,22 +5604,22 @@
         <v>15</v>
       </c>
       <c r="E16" t="n">
-        <v>20134</v>
+        <v>27025</v>
       </c>
       <c r="F16" t="n">
-        <v>4170</v>
+        <v>17280</v>
       </c>
       <c r="G16" t="n">
-        <v>22177</v>
+        <v>28890</v>
       </c>
       <c r="H16" t="n">
-        <v>0.245488685134608</v>
+        <v>0.846886653505061</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0508437378072571</v>
+        <v>0.77957231796445</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2703984588373</v>
+        <v>0.855341070582662</v>
       </c>
       <c r="K16" t="s">
         <v>16</v>
@@ -5959,47 +5628,6 @@
         <v>16</v>
       </c>
       <c r="M16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" t="n">
-        <v>27025</v>
-      </c>
-      <c r="F17" t="n">
-        <v>17280</v>
-      </c>
-      <c r="G17" t="n">
-        <v>28890</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.329508876316816</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.210690596956691</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.352248341786968</v>
-      </c>
-      <c r="K17" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6063,7 +5691,7 @@
         <v>2023</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -6081,22 +5709,22 @@
         <v>675</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00277929634486212</v>
+        <v>0.518544935805991</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00665132529567817</v>
+        <v>0.720496894409938</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00258025550263377</v>
+        <v>0.5</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -6104,7 +5732,7 @@
         <v>2023</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -6122,13 +5750,13 @@
         <v>10536</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0427866364397481</v>
+        <v>0.696236391912908</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0607564162353499</v>
+        <v>0.764980507291717</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0402749214455547</v>
+        <v>0.683312795901161</v>
       </c>
       <c r="K3" t="s">
         <v>16</v>
@@ -6145,7 +5773,7 @@
         <v>2023</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -6163,13 +5791,13 @@
         <v>10470</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0424463924580525</v>
+        <v>0.609920896506262</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0600568802990803</v>
+        <v>0.688716465018411</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0400226297964083</v>
+        <v>0.59586819190712</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
@@ -6186,7 +5814,7 @@
         <v>2023</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -6204,13 +5832,13 @@
         <v>15451</v>
       </c>
       <c r="H5" t="n">
-        <v>0.060574897640083</v>
+        <v>0.729881615919665</v>
       </c>
       <c r="I5" t="n">
-        <v>0.098374630163378</v>
+        <v>0.813137855856425</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0590630041054732</v>
+        <v>0.723192136672127</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
@@ -6227,7 +5855,7 @@
         <v>2023</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -6243,11 +5871,11 @@
         <v>5811</v>
       </c>
       <c r="H6" t="n">
-        <v>0.019971174835708</v>
+        <v>1</v>
       </c>
       <c r="I6"/>
       <c r="J6" t="n">
-        <v>0.0222131329271183</v>
+        <v>1</v>
       </c>
       <c r="K6" t="s">
         <v>16</v>
@@ -6262,7 +5890,7 @@
         <v>2023</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -6278,11 +5906,11 @@
         <v>10102</v>
       </c>
       <c r="H7" t="n">
-        <v>0.037098062903084</v>
+        <v>1</v>
       </c>
       <c r="I7"/>
       <c r="J7" t="n">
-        <v>0.0386159127223798</v>
+        <v>1</v>
       </c>
       <c r="K7" t="s">
         <v>16</v>
@@ -6297,7 +5925,7 @@
         <v>2023</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -6313,11 +5941,11 @@
         <v>48904</v>
       </c>
       <c r="H8" t="n">
-        <v>0.164410479514636</v>
+        <v>1</v>
       </c>
       <c r="I8"/>
       <c r="J8" t="n">
-        <v>0.186940466816003</v>
+        <v>1</v>
       </c>
       <c r="K8" t="s">
         <v>16</v>
@@ -6332,7 +5960,7 @@
         <v>2023</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
@@ -6348,11 +5976,11 @@
         <v>8729</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0274221357382339</v>
+        <v>1</v>
       </c>
       <c r="I9"/>
       <c r="J9" t="n">
-        <v>0.0333674818999855</v>
+        <v>1</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -6367,7 +5995,7 @@
         <v>2023</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
@@ -6385,13 +6013,13 @@
         <v>2406</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00947713292835379</v>
+        <v>0.873502466525722</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0126489858640224</v>
+        <v>0.902126499454744</v>
       </c>
       <c r="J10" t="n">
-        <v>0.00919717739161016</v>
+        <v>0.870162748643761</v>
       </c>
       <c r="K10" t="s">
         <v>16</v>
@@ -6408,7 +6036,7 @@
         <v>2023</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
@@ -6426,22 +6054,22 @@
         <v>843</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00358976515519331</v>
+        <v>0.653444676409186</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00444186206527473</v>
+        <v>0.7</v>
       </c>
       <c r="J11" t="n">
-        <v>0.00322245242773373</v>
+        <v>0.628635346756152</v>
       </c>
       <c r="K11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -6449,7 +6077,7 @@
         <v>2023</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
@@ -6467,13 +6095,13 @@
         <v>5686</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0248301647316087</v>
+        <v>0.555603079555175</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0716737639620492</v>
+        <v>0.783044476926289</v>
       </c>
       <c r="J12" t="n">
-        <v>0.021735307834038</v>
+        <v>0.522562264497748</v>
       </c>
       <c r="K12" t="s">
         <v>16</v>
@@ -6490,7 +6118,7 @@
         <v>2023</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -6508,13 +6136,13 @@
         <v>141989</v>
       </c>
       <c r="H13" t="n">
-        <v>0.564613861310436</v>
+        <v>0.70972392416925</v>
       </c>
       <c r="I13" t="n">
-        <v>0.685396136115167</v>
+        <v>0.747776077137698</v>
       </c>
       <c r="J13" t="n">
-        <v>0.542767257131062</v>
+        <v>0.701294531948416</v>
       </c>
       <c r="K13" t="s">
         <v>16</v>
@@ -6531,7 +6159,7 @@
         <v>2023</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -6540,29 +6168,23 @@
         <v>15</v>
       </c>
       <c r="E14" t="n">
-        <v>261577</v>
-      </c>
-      <c r="F14" t="n">
-        <v>261602</v>
-      </c>
+        <v>65107</v>
+      </c>
+      <c r="F14"/>
       <c r="G14" t="n">
-        <v>261602</v>
+        <v>73546</v>
       </c>
       <c r="H14" t="n">
-        <v>0.754787812683051</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.754537719386799</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14"/>
       <c r="J14" t="n">
-        <v>0.754537719386799</v>
+        <v>1</v>
       </c>
       <c r="K14" t="s">
         <v>16</v>
       </c>
-      <c r="L14" t="s">
-        <v>16</v>
-      </c>
+      <c r="L14"/>
       <c r="M14" t="s">
         <v>16</v>
       </c>
@@ -6572,7 +6194,7 @@
         <v>2023</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -6581,23 +6203,29 @@
         <v>15</v>
       </c>
       <c r="E15" t="n">
-        <v>65107</v>
-      </c>
-      <c r="F15"/>
+        <v>71602</v>
+      </c>
+      <c r="F15" t="n">
+        <v>18750</v>
+      </c>
       <c r="G15" t="n">
-        <v>73546</v>
+        <v>79232</v>
       </c>
       <c r="H15" t="n">
-        <v>0.248901852991662</v>
-      </c>
-      <c r="I15"/>
+        <v>0.932354128416475</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.783044476926289</v>
+      </c>
       <c r="J15" t="n">
-        <v>0.281136994365487</v>
+        <v>0.938467551849527</v>
       </c>
       <c r="K15" t="s">
         <v>16</v>
       </c>
-      <c r="L15"/>
+      <c r="L15" t="s">
+        <v>16</v>
+      </c>
       <c r="M15" t="s">
         <v>16</v>
       </c>
@@ -6607,7 +6235,7 @@
         <v>2023</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
@@ -6616,22 +6244,22 @@
         <v>15</v>
       </c>
       <c r="E16" t="n">
-        <v>71602</v>
+        <v>113887</v>
       </c>
       <c r="F16" t="n">
-        <v>18750</v>
+        <v>82301</v>
       </c>
       <c r="G16" t="n">
-        <v>79232</v>
+        <v>119613</v>
       </c>
       <c r="H16" t="n">
-        <v>0.273732017723271</v>
+        <v>0.822514480507287</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0716737639620492</v>
+        <v>0.769700540560762</v>
       </c>
       <c r="J16" t="n">
-        <v>0.302872302199524</v>
+        <v>0.829275225668686</v>
       </c>
       <c r="K16" t="s">
         <v>16</v>
@@ -6640,47 +6268,6 @@
         <v>16</v>
       </c>
       <c r="M16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" t="n">
-        <v>113887</v>
-      </c>
-      <c r="F17" t="n">
-        <v>82301</v>
-      </c>
-      <c r="G17" t="n">
-        <v>119613</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.435344531005115</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.314603863884833</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.457232742868938</v>
-      </c>
-      <c r="K17" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6744,7 +6331,7 @@
         <v>2023</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -6762,22 +6349,22 @@
         <v>565</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00259133301341568</v>
+        <v>0.703284258210646</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0062592584865113</v>
+        <v>0.851305334846765</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00235765402991926</v>
+        <v>0.683192261185006</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -6785,7 +6372,7 @@
         <v>2023</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -6803,13 +6390,13 @@
         <v>25612</v>
       </c>
       <c r="H3" t="n">
-        <v>0.108022282960212</v>
+        <v>0.824006875477464</v>
       </c>
       <c r="I3" t="n">
-        <v>0.125694256087129</v>
+        <v>0.844605204127411</v>
       </c>
       <c r="J3" t="n">
-        <v>0.106874752237685</v>
+        <v>0.822109520446813</v>
       </c>
       <c r="K3" t="s">
         <v>16</v>
@@ -6826,7 +6413,7 @@
         <v>2023</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -6844,13 +6431,13 @@
         <v>5483</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0233845897056062</v>
+        <v>0.710716550412175</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0324563416720566</v>
+        <v>0.765928114229444</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0228796761876943</v>
+        <v>0.697582697201018</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
@@ -6867,7 +6454,7 @@
         <v>2023</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -6885,13 +6472,13 @@
         <v>14107</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0607148073191596</v>
+        <v>0.794908216783217</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0881178409731061</v>
+        <v>0.849061155562704</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0588662396461433</v>
+        <v>0.789821398577907</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
@@ -6908,7 +6495,7 @@
         <v>2023</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -6924,11 +6511,11 @@
         <v>3780</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0147509858332116</v>
+        <v>1</v>
       </c>
       <c r="I6"/>
       <c r="J6" t="n">
-        <v>0.0157733313860085</v>
+        <v>1</v>
       </c>
       <c r="K6" t="s">
         <v>16</v>
@@ -6943,7 +6530,7 @@
         <v>2023</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -6959,11 +6546,11 @@
         <v>9573</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0373844645204365</v>
+        <v>1</v>
       </c>
       <c r="I7"/>
       <c r="J7" t="n">
-        <v>0.0399465876609151</v>
+        <v>1</v>
       </c>
       <c r="K7" t="s">
         <v>16</v>
@@ -6978,7 +6565,7 @@
         <v>2023</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -6994,11 +6581,11 @@
         <v>35211</v>
       </c>
       <c r="H8" t="n">
-        <v>0.127960107659246</v>
+        <v>1</v>
       </c>
       <c r="I8"/>
       <c r="J8" t="n">
-        <v>0.146929833712366</v>
+        <v>1</v>
       </c>
       <c r="K8" t="s">
         <v>16</v>
@@ -7013,7 +6600,7 @@
         <v>2023</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
@@ -7029,11 +6616,11 @@
         <v>3487</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0123891589643014</v>
+        <v>1</v>
       </c>
       <c r="I9"/>
       <c r="J9" t="n">
-        <v>0.0145506895616433</v>
+        <v>1</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -7048,7 +6635,7 @@
         <v>2023</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
@@ -7066,22 +6653,22 @@
         <v>420</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00189446890191742</v>
+        <v>0.792321116928447</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00318804898912975</v>
+        <v>0.865232163080408</v>
       </c>
       <c r="J10" t="n">
-        <v>0.00175259237622316</v>
+        <v>0.779220779220779</v>
       </c>
       <c r="K10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -7089,7 +6676,7 @@
         <v>2023</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
@@ -7107,22 +6694,22 @@
         <v>764</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00329654280289595</v>
+        <v>0.5813097866078</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00528281416261554</v>
+        <v>0.68991825613079</v>
       </c>
       <c r="J11" t="n">
-        <v>0.00318804898912975</v>
+        <v>0.573143285821455</v>
       </c>
       <c r="K11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -7130,7 +6717,7 @@
         <v>2023</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
@@ -7148,13 +6735,13 @@
         <v>3691</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0165619979553089</v>
+        <v>0.537950664136622</v>
       </c>
       <c r="I12" t="n">
-        <v>0.045442216612072</v>
+        <v>0.761591719700678</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0154019487158088</v>
+        <v>0.519859154929577</v>
       </c>
       <c r="K12" t="s">
         <v>16</v>
@@ -7171,7 +6758,7 @@
         <v>2023</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -7189,13 +6776,13 @@
         <v>136952</v>
       </c>
       <c r="H13" t="n">
-        <v>0.591049260364289</v>
+        <v>0.716202823510376</v>
       </c>
       <c r="I13" t="n">
-        <v>0.69355922301738</v>
+        <v>0.747479290153716</v>
       </c>
       <c r="J13" t="n">
-        <v>0.571478645496464</v>
+        <v>0.709221033443465</v>
       </c>
       <c r="K13" t="s">
         <v>16</v>
@@ -7212,7 +6799,7 @@
         <v>2023</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -7221,29 +6808,23 @@
         <v>15</v>
       </c>
       <c r="E14" t="n">
-        <v>239645</v>
-      </c>
-      <c r="F14" t="n">
-        <v>239645</v>
-      </c>
+        <v>46128</v>
+      </c>
+      <c r="F14"/>
       <c r="G14" t="n">
-        <v>239645</v>
+        <v>52051</v>
       </c>
       <c r="H14" t="n">
-        <v>0.76884701020873</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.768519082696495</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14"/>
       <c r="J14" t="n">
-        <v>0.768519082696495</v>
+        <v>1</v>
       </c>
       <c r="K14" t="s">
         <v>16</v>
       </c>
-      <c r="L14" t="s">
-        <v>16</v>
-      </c>
+      <c r="L14"/>
       <c r="M14" t="s">
         <v>16</v>
       </c>
@@ -7253,7 +6834,7 @@
         <v>2023</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -7262,23 +6843,29 @@
         <v>15</v>
       </c>
       <c r="E15" t="n">
-        <v>46128</v>
-      </c>
-      <c r="F15"/>
+        <v>50097</v>
+      </c>
+      <c r="F15" t="n">
+        <v>10890</v>
+      </c>
       <c r="G15" t="n">
-        <v>52051</v>
+        <v>55742</v>
       </c>
       <c r="H15" t="n">
-        <v>0.192484716977195</v>
-      </c>
-      <c r="I15"/>
+        <v>0.93628751915673</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.761591719700678</v>
+      </c>
       <c r="J15" t="n">
-        <v>0.217200442320933</v>
+        <v>0.942367838244493</v>
       </c>
       <c r="K15" t="s">
         <v>16</v>
       </c>
-      <c r="L15"/>
+      <c r="L15" t="s">
+        <v>16</v>
+      </c>
       <c r="M15" t="s">
         <v>16</v>
       </c>
@@ -7288,7 +6875,7 @@
         <v>2023</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
@@ -7297,22 +6884,22 @@
         <v>15</v>
       </c>
       <c r="E16" t="n">
-        <v>50097</v>
+        <v>98003</v>
       </c>
       <c r="F16" t="n">
-        <v>10890</v>
+        <v>73437</v>
       </c>
       <c r="G16" t="n">
-        <v>55742</v>
+        <v>102693</v>
       </c>
       <c r="H16" t="n">
-        <v>0.209046714932504</v>
+        <v>0.860233835998806</v>
       </c>
       <c r="I16" t="n">
-        <v>0.045442216612072</v>
+        <v>0.820809442376689</v>
       </c>
       <c r="J16" t="n">
-        <v>0.232602391036742</v>
+        <v>0.864965255843335</v>
       </c>
       <c r="K16" t="s">
         <v>16</v>
@@ -7321,47 +6908,6 @@
         <v>16</v>
       </c>
       <c r="M16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" t="n">
-        <v>98003</v>
-      </c>
-      <c r="F17" t="n">
-        <v>73437</v>
-      </c>
-      <c r="G17" t="n">
-        <v>102693</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.408950739635711</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.30644077698262</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.428521354503536</v>
-      </c>
-      <c r="K17" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7431,7 +6977,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" t="n">
         <v>2551</v>
@@ -7443,13 +6989,13 @@
         <v>2224</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00208108480726512</v>
+        <v>0.535025167785235</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00493421320956335</v>
+        <v>0.731792886523107</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00181413294396907</v>
+        <v>0.500788110785859</v>
       </c>
       <c r="K2" t="s">
         <v>16</v>
@@ -7472,7 +7018,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" t="n">
         <v>147960</v>
@@ -7484,13 +7030,13 @@
         <v>145275</v>
       </c>
       <c r="H3" t="n">
-        <v>0.120704550404918</v>
+        <v>0.720045550326785</v>
       </c>
       <c r="I3" t="n">
-        <v>0.144242330312497</v>
+        <v>0.754375935872222</v>
       </c>
       <c r="J3" t="n">
-        <v>0.118501872048159</v>
+        <v>0.716166052915687</v>
       </c>
       <c r="K3" t="s">
         <v>16</v>
@@ -7513,7 +7059,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" t="n">
         <v>44973</v>
@@ -7525,13 +7071,13 @@
         <v>43205</v>
       </c>
       <c r="H4" t="n">
-        <v>0.036688603307383</v>
+        <v>0.590499074329381</v>
       </c>
       <c r="I4" t="n">
-        <v>0.047738451624481</v>
+        <v>0.651656867985035</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0352426321241833</v>
+        <v>0.580018526225349</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
@@ -7554,7 +7100,7 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" t="n">
         <v>70171</v>
@@ -7566,13 +7112,13 @@
         <v>68641</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0572449243475501</v>
+        <v>0.715082034036482</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0895597627923291</v>
+        <v>0.796676704277473</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0559909619635705</v>
+        <v>0.710113591690633</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
@@ -7595,7 +7141,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" t="n">
         <v>224860</v>
@@ -7605,11 +7151,11 @@
         <v>246642</v>
       </c>
       <c r="H6" t="n">
-        <v>0.183438937578061</v>
+        <v>1</v>
       </c>
       <c r="I6"/>
       <c r="J6" t="n">
-        <v>0.201187669769073</v>
+        <v>1</v>
       </c>
       <c r="K6" t="s">
         <v>16</v>
@@ -7627,10 +7173,10 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" t="n">
         <v>46575</v>
@@ -7640,11 +7186,11 @@
         <v>53392</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0379955017241759</v>
+        <v>1</v>
       </c>
       <c r="I7"/>
       <c r="J7" t="n">
-        <v>0.0435522419714013</v>
+        <v>1</v>
       </c>
       <c r="K7" t="s">
         <v>16</v>
@@ -7665,7 +7211,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" t="n">
         <v>6169</v>
@@ -7677,13 +7223,13 @@
         <v>5787</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00503261943395472</v>
+        <v>0.824181696726787</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0074025433752335</v>
+        <v>0.873351939178135</v>
       </c>
       <c r="J8" t="n">
-        <v>0.00472049790771088</v>
+        <v>0.814726172039983</v>
       </c>
       <c r="K8" t="s">
         <v>16</v>
@@ -7706,7 +7252,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" t="n">
         <v>4382</v>
@@ -7718,13 +7264,13 @@
         <v>4231</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00357479953956712</v>
+        <v>0.621736662883087</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00492768755149152</v>
+        <v>0.693809578500057</v>
       </c>
       <c r="J9" t="n">
-        <v>0.00345125741273972</v>
+        <v>0.613455125416848</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -7747,7 +7293,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" t="n">
         <v>22627</v>
@@ -7759,13 +7305,13 @@
         <v>20365</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0184589203974864</v>
+        <v>0.449251479172458</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0536205166689778</v>
+        <v>0.703243682735306</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0166118783291053</v>
+        <v>0.423353567270913</v>
       </c>
       <c r="K10" t="s">
         <v>16</v>
@@ -7788,7 +7334,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" t="n">
         <v>655535</v>
@@ -7800,13 +7346,13 @@
         <v>636168</v>
       </c>
       <c r="H11" t="n">
-        <v>0.534780058459638</v>
+        <v>0.67437570854534</v>
       </c>
       <c r="I11" t="n">
-        <v>0.647574494465426</v>
+        <v>0.714725829147719</v>
       </c>
       <c r="J11" t="n">
-        <v>0.518926855530087</v>
+        <v>0.667517281613706</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
@@ -7829,32 +7375,26 @@
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" t="n">
-        <v>1225803</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1225930</v>
-      </c>
+        <v>271435</v>
+      </c>
+      <c r="F12"/>
       <c r="G12" t="n">
-        <v>1225930</v>
+        <v>300034</v>
       </c>
       <c r="H12" t="n">
-        <v>0.724066742983516</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.72385314979715</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12"/>
       <c r="J12" t="n">
-        <v>0.72385314979715</v>
+        <v>1</v>
       </c>
       <c r="K12" t="s">
         <v>16</v>
       </c>
-      <c r="L12" t="s">
-        <v>16</v>
-      </c>
+      <c r="L12"/>
       <c r="M12" t="s">
         <v>16</v>
       </c>
@@ -7870,26 +7410,32 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" t="n">
-        <v>271435</v>
-      </c>
-      <c r="F13"/>
+        <v>294062</v>
+      </c>
+      <c r="F13" t="n">
+        <v>65735</v>
+      </c>
       <c r="G13" t="n">
-        <v>300034</v>
+        <v>320399</v>
       </c>
       <c r="H13" t="n">
-        <v>0.221434439302237</v>
-      </c>
-      <c r="I13"/>
+        <v>0.913800765069095</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.703243682735306</v>
+      </c>
       <c r="J13" t="n">
-        <v>0.244739911740475</v>
+        <v>0.920321826402174</v>
       </c>
       <c r="K13" t="s">
         <v>16</v>
       </c>
-      <c r="L13"/>
+      <c r="L13" t="s">
+        <v>16</v>
+      </c>
       <c r="M13" t="s">
         <v>16</v>
       </c>
@@ -7905,25 +7451,25 @@
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" t="n">
-        <v>294062</v>
+        <v>570268</v>
       </c>
       <c r="F14" t="n">
-        <v>65735</v>
+        <v>432049</v>
       </c>
       <c r="G14" t="n">
-        <v>320399</v>
+        <v>589762</v>
       </c>
       <c r="H14" t="n">
-        <v>0.239893359699723</v>
+        <v>0.791072023082899</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0536205166689778</v>
+        <v>0.741246731678528</v>
       </c>
       <c r="J14" t="n">
-        <v>0.26135179006958</v>
+        <v>0.79635043297087</v>
       </c>
       <c r="K14" t="s">
         <v>16</v>
@@ -7932,47 +7478,6 @@
         <v>16</v>
       </c>
       <c r="M14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" t="n">
-        <v>570268</v>
-      </c>
-      <c r="F15" t="n">
-        <v>432049</v>
-      </c>
-      <c r="G15" t="n">
-        <v>589762</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.465171747163378</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.352425505534574</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.481073144469913</v>
-      </c>
-      <c r="K15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8036,13 +7541,13 @@
         <v>2023</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" t="n">
         <v>913</v>
@@ -8054,22 +7559,22 @@
         <v>707</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00142086792775828</v>
+        <v>0.488496522204387</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00342479075477658</v>
+        <v>0.697180867912575</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00110010316384691</v>
+        <v>0.425135297654841</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -8077,13 +7582,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" t="n">
         <v>108475</v>
@@ -8095,13 +7600,13 @@
         <v>106827</v>
       </c>
       <c r="H3" t="n">
-        <v>0.168815606203263</v>
+        <v>0.700326679234563</v>
       </c>
       <c r="I3" t="n">
-        <v>0.198065249966157</v>
+        <v>0.732633832729952</v>
       </c>
       <c r="J3" t="n">
-        <v>0.166224498846214</v>
+        <v>0.696940240083507</v>
       </c>
       <c r="K3" t="s">
         <v>16</v>
@@ -8118,13 +7623,13 @@
         <v>2023</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" t="n">
         <v>27415</v>
@@ -8136,13 +7641,13 @@
         <v>26427</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0426649444025118</v>
+        <v>0.565420946252526</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0516892885429001</v>
+        <v>0.611880641002026</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0411208292941757</v>
+        <v>0.556381321318792</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
@@ -8159,13 +7664,13 @@
         <v>2023</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" t="n">
         <v>37020</v>
@@ -8177,13 +7682,13 @@
         <v>36360</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0576128485055987</v>
+        <v>0.683265351322419</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0885544146501999</v>
+        <v>0.768195561794719</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0565767341406981</v>
+        <v>0.679207217977696</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
@@ -8200,13 +7705,13 @@
         <v>2023</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" t="n">
         <v>116474</v>
@@ -8216,11 +7721,11 @@
         <v>124879</v>
       </c>
       <c r="H6" t="n">
-        <v>0.181264152264751</v>
+        <v>1</v>
       </c>
       <c r="I6"/>
       <c r="J6" t="n">
-        <v>0.194313695895386</v>
+        <v>1</v>
       </c>
       <c r="K6" t="s">
         <v>16</v>
@@ -8235,13 +7740,13 @@
         <v>2023</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" t="n">
         <v>25115</v>
@@ -8251,11 +7756,11 @@
         <v>28765</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0390855399842817</v>
+        <v>1</v>
       </c>
       <c r="I7"/>
       <c r="J7" t="n">
-        <v>0.0447587942122437</v>
+        <v>1</v>
       </c>
       <c r="K7" t="s">
         <v>16</v>
@@ -8270,13 +7775,13 @@
         <v>2023</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" t="n">
         <v>2941</v>
@@ -8288,13 +7793,13 @@
         <v>2666</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00457696886696288</v>
+        <v>0.783848614072495</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0066379633620522</v>
+        <v>0.840259996060666</v>
       </c>
       <c r="J8" t="n">
-        <v>0.00414833809733501</v>
+        <v>0.76675294794363</v>
       </c>
       <c r="K8" t="s">
         <v>16</v>
@@ -8311,13 +7816,13 @@
         <v>2023</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" t="n">
         <v>2360</v>
@@ -8329,13 +7834,13 @@
         <v>2331</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00367278018566215</v>
+        <v>0.651933701657459</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00500881482945289</v>
+        <v>0.718687206965841</v>
       </c>
       <c r="J9" t="n">
-        <v>0.00362707280753485</v>
+        <v>0.649122807017544</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -8352,13 +7857,13 @@
         <v>2023</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" t="n">
         <v>10640</v>
@@ -8370,13 +7875,13 @@
         <v>9604</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0165586360912904</v>
+        <v>0.377412031782066</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0496758041100601</v>
+        <v>0.645249307759161</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0149439756514649</v>
+        <v>0.353660332891442</v>
       </c>
       <c r="K10" t="s">
         <v>16</v>
@@ -8393,13 +7898,13 @@
         <v>2023</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" t="n">
         <v>311212</v>
@@ -8411,13 +7916,13 @@
         <v>304101</v>
       </c>
       <c r="H11" t="n">
-        <v>0.484327655567919</v>
+        <v>0.63400602201008</v>
       </c>
       <c r="I11" t="n">
-        <v>0.596943673784402</v>
+        <v>0.680792313944285</v>
       </c>
       <c r="J11" t="n">
-        <v>0.473185957891101</v>
+        <v>0.628335113713612</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
@@ -8434,38 +7939,32 @@
         <v>2023</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" t="n">
-        <v>642565</v>
-      </c>
-      <c r="F12" t="n">
-        <v>642667</v>
-      </c>
+        <v>141589</v>
+      </c>
+      <c r="F12"/>
       <c r="G12" t="n">
-        <v>642667</v>
+        <v>153644</v>
       </c>
       <c r="H12" t="n">
-        <v>0.692832043232659</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.692662701102907</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12"/>
       <c r="J12" t="n">
-        <v>0.692662701102907</v>
+        <v>1</v>
       </c>
       <c r="K12" t="s">
         <v>16</v>
       </c>
-      <c r="L12" t="s">
-        <v>16</v>
-      </c>
+      <c r="L12"/>
       <c r="M12" t="s">
         <v>16</v>
       </c>
@@ -8475,32 +7974,38 @@
         <v>2023</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" t="n">
-        <v>141589</v>
-      </c>
-      <c r="F13"/>
+        <v>152229</v>
+      </c>
+      <c r="F13" t="n">
+        <v>31925</v>
+      </c>
       <c r="G13" t="n">
-        <v>153644</v>
+        <v>163248</v>
       </c>
       <c r="H13" t="n">
-        <v>0.220349692249033</v>
-      </c>
-      <c r="I13"/>
+        <v>0.89661976310659</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.645249307759161</v>
+      </c>
       <c r="J13" t="n">
-        <v>0.23907249010763</v>
+        <v>0.902920353982301</v>
       </c>
       <c r="K13" t="s">
         <v>16</v>
       </c>
-      <c r="L13"/>
+      <c r="L13" t="s">
+        <v>16</v>
+      </c>
       <c r="M13" t="s">
         <v>16</v>
       </c>
@@ -8510,31 +8015,31 @@
         <v>2023</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" t="n">
-        <v>152229</v>
+        <v>331353</v>
       </c>
       <c r="F14" t="n">
-        <v>31925</v>
+        <v>259031</v>
       </c>
       <c r="G14" t="n">
-        <v>163248</v>
+        <v>338566</v>
       </c>
       <c r="H14" t="n">
-        <v>0.236908328340324</v>
+        <v>0.758972561792657</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0496758041100601</v>
+        <v>0.71102394409111</v>
       </c>
       <c r="J14" t="n">
-        <v>0.254016465759095</v>
+        <v>0.762807485546658</v>
       </c>
       <c r="K14" t="s">
         <v>16</v>
@@ -8543,47 +8048,6 @@
         <v>16</v>
       </c>
       <c r="M14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" t="n">
-        <v>331353</v>
-      </c>
-      <c r="F15" t="n">
-        <v>259031</v>
-      </c>
-      <c r="G15" t="n">
-        <v>338566</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.515590500212396</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.403056326215598</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.526814042108899</v>
-      </c>
-      <c r="K15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8647,13 +8111,13 @@
         <v>2023</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" t="n">
         <v>290</v>
@@ -8665,22 +8129,22 @@
         <v>277</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00353589543503707</v>
+        <v>0.472312703583062</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0074131876706984</v>
+        <v>0.652360515021459</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00337738977760437</v>
+        <v>0.46089850249584</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -8688,13 +8152,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" t="n">
         <v>2406</v>
@@ -8706,13 +8170,13 @@
         <v>2300</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0293357393679282</v>
+        <v>0.775128865979381</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0429794186500195</v>
+        <v>0.83471465782619</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0280433086227078</v>
+        <v>0.767178118745831</v>
       </c>
       <c r="K3" t="s">
         <v>16</v>
@@ -8729,13 +8193,13 @@
         <v>2023</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" t="n">
         <v>851</v>
@@ -8747,22 +8211,22 @@
         <v>825</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0103760241904019</v>
+        <v>0.53656998738966</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0221420210690597</v>
+        <v>0.71187769502156</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0100590128755365</v>
+        <v>0.528846153846154</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -8770,13 +8234,13 @@
         <v>2023</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" t="n">
         <v>2756</v>
@@ -8788,13 +8252,13 @@
         <v>2723</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0336031993757316</v>
+        <v>0.70020325203252</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0735344323058915</v>
+        <v>0.836361114963251</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0332008388607101</v>
+        <v>0.697668460158852</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
@@ -8811,13 +8275,13 @@
         <v>2023</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" t="n">
         <v>16052</v>
@@ -8827,11 +8291,11 @@
         <v>17973</v>
       </c>
       <c r="H6" t="n">
-        <v>0.195717908700741</v>
+        <v>1</v>
       </c>
       <c r="I6"/>
       <c r="J6" t="n">
-        <v>0.219140167772142</v>
+        <v>1</v>
       </c>
       <c r="K6" t="s">
         <v>16</v>
@@ -8846,13 +8310,13 @@
         <v>2023</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" t="n">
         <v>2559</v>
@@ -8862,11 +8326,11 @@
         <v>2820</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0312012290284822</v>
+        <v>1</v>
       </c>
       <c r="I7"/>
       <c r="J7" t="n">
-        <v>0.0343835349200156</v>
+        <v>1</v>
       </c>
       <c r="K7" t="s">
         <v>16</v>
@@ -8881,13 +8345,13 @@
         <v>2023</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" t="n">
         <v>295</v>
@@ -8899,22 +8363,22 @@
         <v>295</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00359685914943426</v>
+        <v>0.916149068322981</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00897385875926648</v>
+        <v>0.964613368283093</v>
       </c>
       <c r="J8" t="n">
-        <v>0.00359685914943426</v>
+        <v>0.916149068322981</v>
       </c>
       <c r="K8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -8922,13 +8386,13 @@
         <v>2023</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" t="n">
         <v>293</v>
@@ -8940,22 +8404,22 @@
         <v>293</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00357247366367538</v>
+        <v>0.463607594936709</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00480394069449863</v>
+        <v>0.537517053206003</v>
       </c>
       <c r="J9" t="n">
-        <v>0.00357247366367538</v>
+        <v>0.463607594936709</v>
       </c>
       <c r="K9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -8963,13 +8427,13 @@
         <v>2023</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" t="n">
         <v>1523</v>
@@ -8981,13 +8445,13 @@
         <v>1384</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0185695474053843</v>
+        <v>0.490341274951706</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0508437378072571</v>
+        <v>0.724839214322962</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0168747561451424</v>
+        <v>0.466464442197506</v>
       </c>
       <c r="K10" t="s">
         <v>16</v>
@@ -9004,13 +8468,13 @@
         <v>2023</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" t="n">
         <v>54991</v>
@@ -9022,13 +8486,13 @@
         <v>53126</v>
       </c>
       <c r="H11" t="n">
-        <v>0.670491123683184</v>
+        <v>0.729972256514409</v>
       </c>
       <c r="I11" t="n">
-        <v>0.789309403043309</v>
+        <v>0.760722931208724</v>
       </c>
       <c r="J11" t="n">
-        <v>0.647751658213032</v>
+        <v>0.722920748965818</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
@@ -9045,38 +8509,32 @@
         <v>2023</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" t="n">
-        <v>82016</v>
-      </c>
-      <c r="F12" t="n">
-        <v>82016</v>
-      </c>
+        <v>18611</v>
+      </c>
+      <c r="F12"/>
       <c r="G12" t="n">
-        <v>82016</v>
+        <v>20793</v>
       </c>
       <c r="H12" t="n">
-        <v>0.764760732535154</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.764618138424821</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12"/>
       <c r="J12" t="n">
-        <v>0.764618138424821</v>
+        <v>1</v>
       </c>
       <c r="K12" t="s">
         <v>16</v>
       </c>
-      <c r="L12" t="s">
-        <v>16</v>
-      </c>
+      <c r="L12"/>
       <c r="M12" t="s">
         <v>16</v>
       </c>
@@ -9086,32 +8544,38 @@
         <v>2023</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" t="n">
-        <v>18611</v>
-      </c>
-      <c r="F13"/>
+        <v>20134</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4170</v>
+      </c>
       <c r="G13" t="n">
-        <v>20793</v>
+        <v>22177</v>
       </c>
       <c r="H13" t="n">
-        <v>0.226919137729224</v>
-      </c>
-      <c r="I13"/>
+        <v>0.927107795736059</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.724839214322962</v>
+      </c>
       <c r="J13" t="n">
-        <v>0.253523702692158</v>
+        <v>0.933375420875421</v>
       </c>
       <c r="K13" t="s">
         <v>16</v>
       </c>
-      <c r="L13"/>
+      <c r="L13" t="s">
+        <v>16</v>
+      </c>
       <c r="M13" t="s">
         <v>16</v>
       </c>
@@ -9121,31 +8585,31 @@
         <v>2023</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" t="n">
-        <v>20134</v>
+        <v>27025</v>
       </c>
       <c r="F14" t="n">
-        <v>4170</v>
+        <v>17280</v>
       </c>
       <c r="G14" t="n">
-        <v>22177</v>
+        <v>28890</v>
       </c>
       <c r="H14" t="n">
-        <v>0.245488685134608</v>
+        <v>0.846886653505061</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0508437378072571</v>
+        <v>0.77957231796445</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2703984588373</v>
+        <v>0.855341070582662</v>
       </c>
       <c r="K14" t="s">
         <v>16</v>
@@ -9154,47 +8618,6 @@
         <v>16</v>
       </c>
       <c r="M14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" t="n">
-        <v>27025</v>
-      </c>
-      <c r="F15" t="n">
-        <v>17280</v>
-      </c>
-      <c r="G15" t="n">
-        <v>28890</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.329508876316816</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.210690596956691</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.352248341786968</v>
-      </c>
-      <c r="K15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" t="s">
         <v>16</v>
       </c>
     </row>
@@ -9258,13 +8681,13 @@
         <v>2023</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" t="n">
         <v>727</v>
@@ -9276,22 +8699,22 @@
         <v>675</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00277929634486212</v>
+        <v>0.518544935805991</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00665132529567817</v>
+        <v>0.720496894409938</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00258025550263377</v>
+        <v>0.5</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -9299,13 +8722,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" t="n">
         <v>11192</v>
@@ -9317,13 +8740,13 @@
         <v>10536</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0427866364397481</v>
+        <v>0.696236391912908</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0607564162353499</v>
+        <v>0.764980507291717</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0402749214455547</v>
+        <v>0.683312795901161</v>
       </c>
       <c r="K3" t="s">
         <v>16</v>
@@ -9340,13 +8763,13 @@
         <v>2023</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" t="n">
         <v>11103</v>
@@ -9358,13 +8781,13 @@
         <v>10470</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0424463924580525</v>
+        <v>0.609920896506262</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0600568802990803</v>
+        <v>0.688716465018411</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0400226297964083</v>
+        <v>0.59586819190712</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
@@ -9381,13 +8804,13 @@
         <v>2023</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" t="n">
         <v>15845</v>
@@ -9399,13 +8822,13 @@
         <v>15451</v>
       </c>
       <c r="H5" t="n">
-        <v>0.060574897640083</v>
+        <v>0.729881615919665</v>
       </c>
       <c r="I5" t="n">
-        <v>0.098374630163378</v>
+        <v>0.813137855856425</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0590630041054732</v>
+        <v>0.723192136672127</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
@@ -9422,13 +8845,13 @@
         <v>2023</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" t="n">
         <v>52710</v>
@@ -9438,11 +8861,11 @@
         <v>59006</v>
       </c>
       <c r="H6" t="n">
-        <v>0.20150854241772</v>
+        <v>1</v>
       </c>
       <c r="I6"/>
       <c r="J6" t="n">
-        <v>0.225556379538383</v>
+        <v>1</v>
       </c>
       <c r="K6" t="s">
         <v>16</v>
@@ -9457,13 +8880,13 @@
         <v>2023</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" t="n">
         <v>12397</v>
@@ -9473,11 +8896,11 @@
         <v>14540</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0473933105739419</v>
+        <v>1</v>
       </c>
       <c r="I7"/>
       <c r="J7" t="n">
-        <v>0.0555806148271038</v>
+        <v>1</v>
       </c>
       <c r="K7" t="s">
         <v>16</v>
@@ -9492,13 +8915,13 @@
         <v>2023</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" t="n">
         <v>2479</v>
@@ -9510,13 +8933,13 @@
         <v>2406</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00947713292835379</v>
+        <v>0.873502466525722</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0126489858640224</v>
+        <v>0.902126499454744</v>
       </c>
       <c r="J8" t="n">
-        <v>0.00919717739161016</v>
+        <v>0.870162748643761</v>
       </c>
       <c r="K8" t="s">
         <v>16</v>
@@ -9533,13 +8956,13 @@
         <v>2023</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" t="n">
         <v>939</v>
@@ -9551,22 +8974,22 @@
         <v>843</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00358976515519331</v>
+        <v>0.653444676409186</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00444186206527473</v>
+        <v>0.7</v>
       </c>
       <c r="J9" t="n">
-        <v>0.00322245242773373</v>
+        <v>0.628635346756152</v>
       </c>
       <c r="K9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -9574,13 +8997,13 @@
         <v>2023</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" t="n">
         <v>6495</v>
@@ -9592,13 +9015,13 @@
         <v>5686</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0248301647316087</v>
+        <v>0.555603079555175</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0716737639620492</v>
+        <v>0.783044476926289</v>
       </c>
       <c r="J10" t="n">
-        <v>0.021735307834038</v>
+        <v>0.522562264497748</v>
       </c>
       <c r="K10" t="s">
         <v>16</v>
@@ -9615,13 +9038,13 @@
         <v>2023</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" t="n">
         <v>147690</v>
@@ -9633,13 +9056,13 @@
         <v>141989</v>
       </c>
       <c r="H11" t="n">
-        <v>0.564613861310436</v>
+        <v>0.70972392416925</v>
       </c>
       <c r="I11" t="n">
-        <v>0.685396136115167</v>
+        <v>0.747776077137698</v>
       </c>
       <c r="J11" t="n">
-        <v>0.542767257131062</v>
+        <v>0.701294531948416</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
@@ -9656,38 +9079,32 @@
         <v>2023</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" t="n">
-        <v>261577</v>
-      </c>
-      <c r="F12" t="n">
-        <v>261602</v>
-      </c>
+        <v>65107</v>
+      </c>
+      <c r="F12"/>
       <c r="G12" t="n">
-        <v>261602</v>
+        <v>73546</v>
       </c>
       <c r="H12" t="n">
-        <v>0.754787812683051</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.754537719386799</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12"/>
       <c r="J12" t="n">
-        <v>0.754537719386799</v>
+        <v>1</v>
       </c>
       <c r="K12" t="s">
         <v>16</v>
       </c>
-      <c r="L12" t="s">
-        <v>16</v>
-      </c>
+      <c r="L12"/>
       <c r="M12" t="s">
         <v>16</v>
       </c>
@@ -9697,32 +9114,38 @@
         <v>2023</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" t="n">
-        <v>65107</v>
-      </c>
-      <c r="F13"/>
+        <v>71602</v>
+      </c>
+      <c r="F13" t="n">
+        <v>18750</v>
+      </c>
       <c r="G13" t="n">
-        <v>73546</v>
+        <v>79232</v>
       </c>
       <c r="H13" t="n">
-        <v>0.248901852991662</v>
-      </c>
-      <c r="I13"/>
+        <v>0.932354128416475</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.783044476926289</v>
+      </c>
       <c r="J13" t="n">
-        <v>0.281136994365487</v>
+        <v>0.938467551849527</v>
       </c>
       <c r="K13" t="s">
         <v>16</v>
       </c>
-      <c r="L13"/>
+      <c r="L13" t="s">
+        <v>16</v>
+      </c>
       <c r="M13" t="s">
         <v>16</v>
       </c>
@@ -9732,31 +9155,31 @@
         <v>2023</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" t="n">
-        <v>71602</v>
+        <v>113887</v>
       </c>
       <c r="F14" t="n">
-        <v>18750</v>
+        <v>82301</v>
       </c>
       <c r="G14" t="n">
-        <v>79232</v>
+        <v>119613</v>
       </c>
       <c r="H14" t="n">
-        <v>0.273732017723271</v>
+        <v>0.822514480507287</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0716737639620492</v>
+        <v>0.769700540560762</v>
       </c>
       <c r="J14" t="n">
-        <v>0.302872302199524</v>
+        <v>0.829275225668686</v>
       </c>
       <c r="K14" t="s">
         <v>16</v>
@@ -9765,47 +9188,6 @@
         <v>16</v>
       </c>
       <c r="M14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" t="n">
-        <v>113887</v>
-      </c>
-      <c r="F15" t="n">
-        <v>82301</v>
-      </c>
-      <c r="G15" t="n">
-        <v>119613</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.435344531005115</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.314603863884833</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.457232742868938</v>
-      </c>
-      <c r="K15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" t="s">
         <v>16</v>
       </c>
     </row>
